--- a/src/Components/Price/ПРАЙС_ЛИСТ от 29.12.2025.xlsx
+++ b/src/Components/Price/ПРАЙС_ЛИСТ от 29.12.2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\website\src\Components\Price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\МДГТ - (Прайс-лист)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3C226-AB5A-4990-9961-39C1577C6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="зкшсыф" localSheetId="0">Лист1!$C$7:$H$282</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$1:$H$427</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1921,9 +1920,6 @@
     <t>Количество</t>
   </si>
   <si>
-    <t>Цены указаны без учета НДС 5% (организациям не являющимся плательщиками НДС компенсируется 5% стоимости работ).</t>
-  </si>
-  <si>
     <t>Пункт
 по
 «Справочнику базовых цен»     (СБЦ)</t>
@@ -2564,11 +2560,14 @@
   <si>
     <t>29.12.2025 г.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Цены указаны без учета НДС 7% </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -4536,239 +4535,239 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="5" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4864,9 +4863,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4904,9 +4903,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4941,7 +4940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4976,7 +4975,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5149,64 +5148,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A394" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="111" customWidth="1"/>
-    <col min="2" max="2" width="58.54296875" style="111" customWidth="1"/>
-    <col min="3" max="8" width="16.54296875" style="111" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="111" customWidth="1"/>
-    <col min="10" max="16384" width="8.54296875" style="111"/>
+    <col min="1" max="1" width="5.5703125" style="111" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="111" customWidth="1"/>
+    <col min="3" max="8" width="16.5703125" style="111" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="111" customWidth="1"/>
+    <col min="10" max="16384" width="8.5703125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="112"/>
       <c r="F1" s="112"/>
-      <c r="G1" s="221" t="s">
-        <v>431</v>
-      </c>
-      <c r="H1" s="221"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="259" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" s="259"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="112"/>
       <c r="F2" s="112"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E3" s="112"/>
       <c r="F3" s="112"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-    </row>
-    <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="112"/>
       <c r="F4" s="112"/>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="112"/>
       <c r="F5" s="112"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="112"/>
       <c r="F6" s="112"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-    </row>
-    <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.45">
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A7" s="113"/>
       <c r="B7" s="177" t="s">
         <v>0</v>
@@ -5218,7 +5217,7 @@
       <c r="G7" s="177"/>
       <c r="H7" s="177"/>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="114"/>
       <c r="B8" s="176" t="s">
         <v>386</v>
@@ -5230,10 +5229,10 @@
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="112"/>
       <c r="B9" s="178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" s="178"/>
       <c r="D9" s="178"/>
@@ -5242,10 +5241,10 @@
       <c r="G9" s="178"/>
       <c r="H9" s="178"/>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="115"/>
       <c r="B10" s="175" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
       <c r="C10" s="175"/>
       <c r="D10" s="175"/>
@@ -5254,7 +5253,7 @@
       <c r="G10" s="175"/>
       <c r="H10" s="175"/>
     </row>
-    <row r="11" spans="1:8" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="116"/>
       <c r="B11" s="116"/>
       <c r="C11" s="116"/>
@@ -5264,10 +5263,10 @@
       <c r="G11" s="116"/>
       <c r="H11" s="117"/>
     </row>
-    <row r="12" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="113"/>
       <c r="B12" s="141" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C12" s="141"/>
       <c r="D12" s="141"/>
@@ -5276,10 +5275,10 @@
       <c r="G12" s="141"/>
       <c r="H12" s="141"/>
     </row>
-    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C13" s="160"/>
       <c r="D13" s="160"/>
@@ -5288,13 +5287,13 @@
       <c r="G13" s="160"/>
       <c r="H13" s="160"/>
     </row>
-    <row r="14" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="101.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="118"/>
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>380</v>
@@ -5306,12 +5305,12 @@
       <c r="F14" s="181" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="200" t="s">
+      <c r="G14" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="200"/>
-    </row>
-    <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="H14" s="204"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="21">
         <v>1</v>
@@ -5328,12 +5327,12 @@
       <c r="F15" s="182">
         <v>5</v>
       </c>
-      <c r="G15" s="206">
+      <c r="G15" s="212">
         <v>6</v>
       </c>
-      <c r="H15" s="206"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="212"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="B16" s="31" t="s">
         <v>2</v>
@@ -5351,13 +5350,13 @@
       <c r="F16" s="49">
         <v>0.45</v>
       </c>
-      <c r="G16" s="202">
+      <c r="G16" s="203">
         <f>E16*F16</f>
         <v>200.6343</v>
       </c>
-      <c r="H16" s="202"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="203"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
         <v>4</v>
@@ -5375,13 +5374,13 @@
       <c r="F17" s="49">
         <v>0.45</v>
       </c>
-      <c r="G17" s="202">
+      <c r="G17" s="203">
         <f t="shared" ref="G17:G64" si="0">E17*F17</f>
         <v>140.79599999999999</v>
       </c>
-      <c r="H17" s="202"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="203"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>6</v>
@@ -5399,13 +5398,13 @@
       <c r="F18" s="49">
         <v>0.45</v>
       </c>
-      <c r="G18" s="202">
+      <c r="G18" s="203">
         <f t="shared" si="0"/>
         <v>341.43029999999999</v>
       </c>
-      <c r="H18" s="202"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="203"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="31" t="s">
         <v>8</v>
@@ -5423,13 +5422,13 @@
       <c r="F19" s="49">
         <v>0.45</v>
       </c>
-      <c r="G19" s="202">
+      <c r="G19" s="203">
         <f t="shared" si="0"/>
         <v>253.43279999999999</v>
       </c>
-      <c r="H19" s="202"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="203"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="31" t="s">
         <v>10</v>
@@ -5447,13 +5446,13 @@
       <c r="F20" s="49">
         <v>0.45</v>
       </c>
-      <c r="G20" s="202">
+      <c r="G20" s="203">
         <f t="shared" si="0"/>
         <v>640.62179999999989</v>
       </c>
-      <c r="H20" s="202"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="203"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>12</v>
@@ -5471,13 +5470,13 @@
       <c r="F21" s="49">
         <v>0.45</v>
       </c>
-      <c r="G21" s="202">
+      <c r="G21" s="203">
         <f t="shared" si="0"/>
         <v>711.01979999999992</v>
       </c>
-      <c r="H21" s="202"/>
-    </row>
-    <row r="22" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H21" s="203"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="B22" s="31" t="s">
         <v>14</v>
@@ -5495,13 +5494,13 @@
       <c r="F22" s="49">
         <v>0.45</v>
       </c>
-      <c r="G22" s="202">
+      <c r="G22" s="203">
         <f t="shared" si="0"/>
         <v>689.9004000000001</v>
       </c>
-      <c r="H22" s="202"/>
-    </row>
-    <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H22" s="203"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
         <v>16</v>
@@ -5519,13 +5518,13 @@
       <c r="F23" s="49">
         <v>0.45</v>
       </c>
-      <c r="G23" s="202">
+      <c r="G23" s="203">
         <f t="shared" si="0"/>
         <v>482.22630000000004</v>
       </c>
-      <c r="H23" s="202"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="203"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="31" t="s">
         <v>18</v>
@@ -5543,13 +5542,13 @@
       <c r="F24" s="49">
         <v>0.45</v>
       </c>
-      <c r="G24" s="202">
+      <c r="G24" s="203">
         <f t="shared" si="0"/>
         <v>249.91289999999998</v>
       </c>
-      <c r="H24" s="202"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="203"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="31" t="s">
         <v>20</v>
@@ -5567,13 +5566,13 @@
       <c r="F25" s="49">
         <v>0.45</v>
       </c>
-      <c r="G25" s="202">
+      <c r="G25" s="203">
         <f t="shared" si="0"/>
         <v>175.995</v>
       </c>
-      <c r="H25" s="202"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H25" s="203"/>
+    </row>
+    <row r="26" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="31" t="s">
         <v>22</v>
@@ -5591,13 +5590,13 @@
       <c r="F26" s="49">
         <v>0.45</v>
       </c>
-      <c r="G26" s="202">
+      <c r="G26" s="203">
         <f t="shared" si="0"/>
         <v>1657.8729000000001</v>
       </c>
-      <c r="H26" s="202"/>
-    </row>
-    <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H26" s="203"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="31" t="s">
         <v>24</v>
@@ -5615,13 +5614,13 @@
       <c r="F27" s="49">
         <v>0.45</v>
       </c>
-      <c r="G27" s="202">
+      <c r="G27" s="203">
         <f t="shared" si="0"/>
         <v>2397.0518999999999</v>
       </c>
-      <c r="H27" s="202"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="203"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="31" t="s">
         <v>26</v>
@@ -5639,13 +5638,13 @@
       <c r="F28" s="49">
         <v>0.45</v>
       </c>
-      <c r="G28" s="202">
+      <c r="G28" s="203">
         <f t="shared" si="0"/>
         <v>573.7437000000001</v>
       </c>
-      <c r="H28" s="202"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="203"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="31" t="s">
         <v>359</v>
@@ -5663,13 +5662,13 @@
       <c r="F29" s="49">
         <v>0.45</v>
       </c>
-      <c r="G29" s="202">
+      <c r="G29" s="203">
         <f>E29*F29</f>
         <v>640.62179999999989</v>
       </c>
-      <c r="H29" s="202"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="203"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="31" t="s">
         <v>28</v>
@@ -5687,13 +5686,13 @@
       <c r="F30" s="49">
         <v>0.45</v>
       </c>
-      <c r="G30" s="202">
+      <c r="G30" s="203">
         <f t="shared" si="0"/>
         <v>475.18650000000002</v>
       </c>
-      <c r="H30" s="202"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="203"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="31" t="s">
         <v>272</v>
@@ -5711,13 +5710,13 @@
       <c r="F31" s="49">
         <v>0.45</v>
       </c>
-      <c r="G31" s="202">
+      <c r="G31" s="203">
         <f>E31*F31</f>
         <v>302.71140000000003</v>
       </c>
-      <c r="H31" s="202"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="203"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="31" t="s">
         <v>366</v>
@@ -5735,13 +5734,13 @@
       <c r="F32" s="49">
         <v>0.45</v>
       </c>
-      <c r="G32" s="202">
+      <c r="G32" s="203">
         <f>E32*F32</f>
         <v>172.47510000000003</v>
       </c>
-      <c r="H32" s="202"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="203"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
         <v>367</v>
@@ -5759,13 +5758,13 @@
       <c r="F33" s="49">
         <v>0.45</v>
       </c>
-      <c r="G33" s="202">
+      <c r="G33" s="203">
         <f>E33*F33</f>
         <v>271.03230000000002</v>
       </c>
-      <c r="H33" s="202"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="203"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="31" t="s">
         <v>212</v>
@@ -5783,13 +5782,13 @@
       <c r="F34" s="49">
         <v>0.45</v>
       </c>
-      <c r="G34" s="202">
+      <c r="G34" s="203">
         <f>E34*F34</f>
         <v>2456.8901999999998</v>
       </c>
-      <c r="H34" s="202"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="203"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="44"/>
       <c r="C35" s="180"/>
@@ -5799,7 +5798,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="44"/>
       <c r="C36" s="120"/>
@@ -5809,10 +5808,10 @@
       <c r="G36" s="45"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="1:9" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C37" s="160"/>
       <c r="D37" s="160"/>
@@ -5821,13 +5820,13 @@
       <c r="G37" s="160"/>
       <c r="H37" s="160"/>
     </row>
-    <row r="38" spans="1:9" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>380</v>
@@ -5839,12 +5838,12 @@
       <c r="F38" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="G38" s="200" t="s">
+      <c r="G38" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H38" s="200"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="204"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="21">
         <v>1</v>
@@ -5861,12 +5860,12 @@
       <c r="F39" s="21">
         <v>5</v>
       </c>
-      <c r="G39" s="206">
+      <c r="G39" s="212">
         <v>6</v>
       </c>
-      <c r="H39" s="206"/>
-    </row>
-    <row r="40" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H39" s="212"/>
+    </row>
+    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="31" t="s">
         <v>30</v>
@@ -5884,14 +5883,14 @@
       <c r="F40" s="98">
         <v>0.4</v>
       </c>
-      <c r="G40" s="202">
+      <c r="G40" s="203">
         <f t="shared" si="0"/>
         <v>4223.88</v>
       </c>
-      <c r="H40" s="202"/>
+      <c r="H40" s="203"/>
       <c r="I40" s="103"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="31" t="s">
         <v>32</v>
@@ -5909,14 +5908,14 @@
       <c r="F41" s="98">
         <v>0.4</v>
       </c>
-      <c r="G41" s="202">
+      <c r="G41" s="203">
         <f t="shared" si="0"/>
         <v>7055.4440000000004</v>
       </c>
-      <c r="H41" s="202"/>
+      <c r="H41" s="203"/>
       <c r="I41" s="103"/>
     </row>
-    <row r="42" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="31" t="s">
         <v>34</v>
@@ -5934,14 +5933,14 @@
       <c r="F42" s="98">
         <v>0.4</v>
       </c>
-      <c r="G42" s="202">
+      <c r="G42" s="203">
         <f t="shared" si="0"/>
         <v>3579.3472000000002</v>
       </c>
-      <c r="H42" s="202"/>
+      <c r="H42" s="203"/>
       <c r="I42" s="103"/>
     </row>
-    <row r="43" spans="1:9" ht="50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="31" t="s">
         <v>36</v>
@@ -5959,14 +5958,14 @@
       <c r="F43" s="98">
         <v>0.4</v>
       </c>
-      <c r="G43" s="202">
+      <c r="G43" s="203">
         <f t="shared" si="0"/>
         <v>4843.3824000000004</v>
       </c>
-      <c r="H43" s="202"/>
+      <c r="H43" s="203"/>
       <c r="I43" s="103"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="31" t="s">
         <v>32</v>
@@ -5984,14 +5983,14 @@
       <c r="F44" s="98">
         <v>0.4</v>
       </c>
-      <c r="G44" s="208">
+      <c r="G44" s="262">
         <f t="shared" si="0"/>
         <v>8281.9336000000003</v>
       </c>
-      <c r="H44" s="208"/>
+      <c r="H44" s="262"/>
       <c r="I44" s="103"/>
     </row>
-    <row r="45" spans="1:9" ht="50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="31" t="s">
         <v>39</v>
@@ -6009,14 +6008,14 @@
       <c r="F45" s="98">
         <v>0.4</v>
       </c>
-      <c r="G45" s="206">
+      <c r="G45" s="212">
         <f t="shared" si="0"/>
         <v>4205.1072000000004</v>
       </c>
-      <c r="H45" s="206"/>
+      <c r="H45" s="212"/>
       <c r="I45" s="103"/>
     </row>
-    <row r="46" spans="1:9" ht="50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="31" t="s">
         <v>41</v>
@@ -6034,14 +6033,14 @@
       <c r="F46" s="98">
         <v>0.4</v>
       </c>
-      <c r="G46" s="202">
+      <c r="G46" s="203">
         <f t="shared" si="0"/>
         <v>3188.2472000000002</v>
       </c>
-      <c r="H46" s="202"/>
+      <c r="H46" s="203"/>
       <c r="I46" s="103"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>213</v>
@@ -6059,14 +6058,14 @@
       <c r="F47" s="98">
         <v>0.4</v>
       </c>
-      <c r="G47" s="202">
+      <c r="G47" s="203">
         <f t="shared" si="0"/>
         <v>4614.9800000000005</v>
       </c>
-      <c r="H47" s="202"/>
+      <c r="H47" s="203"/>
       <c r="I47" s="103"/>
     </row>
-    <row r="48" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="31" t="s">
         <v>302</v>
@@ -6084,14 +6083,14 @@
       <c r="F48" s="98">
         <v>0.4</v>
       </c>
-      <c r="G48" s="202">
+      <c r="G48" s="203">
         <f t="shared" si="0"/>
         <v>11537.45</v>
       </c>
-      <c r="H48" s="202"/>
+      <c r="H48" s="203"/>
       <c r="I48" s="103"/>
     </row>
-    <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="31" t="s">
         <v>44</v>
@@ -6109,14 +6108,14 @@
       <c r="F49" s="98">
         <v>0.4</v>
       </c>
-      <c r="G49" s="202">
+      <c r="G49" s="203">
         <f>E49*F49</f>
         <v>5710.06</v>
       </c>
-      <c r="H49" s="202"/>
+      <c r="H49" s="203"/>
       <c r="I49" s="103"/>
     </row>
-    <row r="50" spans="1:9" ht="50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="31" t="s">
         <v>46</v>
@@ -6134,14 +6133,14 @@
       <c r="F50" s="98">
         <v>0.4</v>
       </c>
-      <c r="G50" s="208">
+      <c r="G50" s="262">
         <f t="shared" si="0"/>
         <v>4054.9248000000002</v>
       </c>
-      <c r="H50" s="208"/>
+      <c r="H50" s="262"/>
       <c r="I50" s="103"/>
     </row>
-    <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="31" t="s">
         <v>48</v>
@@ -6159,14 +6158,14 @@
       <c r="F51" s="98">
         <v>0.4</v>
       </c>
-      <c r="G51" s="206">
+      <c r="G51" s="212">
         <f t="shared" si="0"/>
         <v>6304.5320000000002</v>
       </c>
-      <c r="H51" s="206"/>
+      <c r="H51" s="212"/>
       <c r="I51" s="103"/>
     </row>
-    <row r="52" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="31" t="s">
         <v>50</v>
@@ -6184,14 +6183,14 @@
       <c r="F52" s="98">
         <v>0.4</v>
       </c>
-      <c r="G52" s="202">
+      <c r="G52" s="203">
         <f t="shared" si="0"/>
         <v>7039.8</v>
       </c>
-      <c r="H52" s="202"/>
+      <c r="H52" s="203"/>
       <c r="I52" s="103"/>
     </row>
-    <row r="53" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="31" t="s">
         <v>52</v>
@@ -6209,14 +6208,14 @@
       <c r="F53" s="98">
         <v>0.4</v>
       </c>
-      <c r="G53" s="202">
+      <c r="G53" s="203">
         <f t="shared" si="0"/>
         <v>6038.5839999999998</v>
       </c>
-      <c r="H53" s="202"/>
+      <c r="H53" s="203"/>
       <c r="I53" s="103"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="31" t="s">
         <v>54</v>
@@ -6234,14 +6233,14 @@
       <c r="F54" s="98">
         <v>0.4</v>
       </c>
-      <c r="G54" s="202">
+      <c r="G54" s="203">
         <f t="shared" si="0"/>
         <v>9843.2048000000013</v>
       </c>
-      <c r="H54" s="202"/>
+      <c r="H54" s="203"/>
       <c r="I54" s="103"/>
     </row>
-    <row r="55" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="31" t="s">
         <v>56</v>
@@ -6259,14 +6258,14 @@
       <c r="F55" s="98">
         <v>0.4</v>
       </c>
-      <c r="G55" s="202">
+      <c r="G55" s="203">
         <f t="shared" si="0"/>
         <v>5572.3928000000005</v>
       </c>
-      <c r="H55" s="202"/>
+      <c r="H55" s="203"/>
       <c r="I55" s="103"/>
     </row>
-    <row r="56" spans="1:9" ht="50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="31" t="s">
         <v>58</v>
@@ -6284,14 +6283,14 @@
       <c r="F56" s="98">
         <v>0.4</v>
       </c>
-      <c r="G56" s="208">
+      <c r="G56" s="262">
         <f>E56*F56</f>
         <v>6889.6175999999996</v>
       </c>
-      <c r="H56" s="208"/>
+      <c r="H56" s="262"/>
       <c r="I56" s="103"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="31" t="s">
         <v>32</v>
@@ -6309,14 +6308,14 @@
       <c r="F57" s="98">
         <v>0.4</v>
       </c>
-      <c r="G57" s="210">
+      <c r="G57" s="263">
         <f t="shared" si="0"/>
         <v>11063.436800000001</v>
       </c>
-      <c r="H57" s="211"/>
+      <c r="H57" s="264"/>
       <c r="I57" s="103"/>
     </row>
-    <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="31" t="s">
         <v>61</v>
@@ -6334,14 +6333,14 @@
       <c r="F58" s="98">
         <v>0.4</v>
       </c>
-      <c r="G58" s="202">
+      <c r="G58" s="203">
         <f t="shared" si="0"/>
         <v>6251.3424000000005</v>
       </c>
-      <c r="H58" s="202"/>
+      <c r="H58" s="203"/>
       <c r="I58" s="103"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="31" t="s">
         <v>63</v>
@@ -6359,13 +6358,13 @@
       <c r="F59" s="98">
         <v>0.4</v>
       </c>
-      <c r="G59" s="202">
+      <c r="G59" s="203">
         <f t="shared" si="0"/>
         <v>3188.2472000000002</v>
       </c>
-      <c r="H59" s="202"/>
-    </row>
-    <row r="60" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="H59" s="203"/>
+    </row>
+    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="31" t="s">
         <v>64</v>
@@ -6383,13 +6382,13 @@
       <c r="F60" s="98">
         <v>0.4</v>
       </c>
-      <c r="G60" s="202">
+      <c r="G60" s="203">
         <f t="shared" si="0"/>
         <v>272.20559999999995</v>
       </c>
-      <c r="H60" s="202"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="203"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
         <v>66</v>
@@ -6407,13 +6406,13 @@
       <c r="F61" s="98">
         <v>0.4</v>
       </c>
-      <c r="G61" s="202">
+      <c r="G61" s="203">
         <f t="shared" si="0"/>
         <v>450.54719999999998</v>
       </c>
-      <c r="H61" s="202"/>
-    </row>
-    <row r="62" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="H61" s="203"/>
+    </row>
+    <row r="62" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
         <v>363</v>
@@ -6431,13 +6430,13 @@
       <c r="F62" s="98">
         <v>0.4</v>
       </c>
-      <c r="G62" s="208">
+      <c r="G62" s="262">
         <f t="shared" si="0"/>
         <v>841.6472</v>
       </c>
-      <c r="H62" s="208"/>
-    </row>
-    <row r="63" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="H62" s="262"/>
+    </row>
+    <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
         <v>364</v>
@@ -6455,13 +6454,13 @@
       <c r="F63" s="98">
         <v>0.4</v>
       </c>
-      <c r="G63" s="210">
+      <c r="G63" s="263">
         <f t="shared" si="0"/>
         <v>1173.3</v>
       </c>
-      <c r="H63" s="211"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="264"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="31" t="s">
         <v>362</v>
@@ -6479,16 +6478,16 @@
       <c r="F64" s="98">
         <v>0.4</v>
       </c>
-      <c r="G64" s="202">
+      <c r="G64" s="203">
         <f t="shared" si="0"/>
         <v>841.6472</v>
       </c>
-      <c r="H64" s="202"/>
-    </row>
-    <row r="65" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="H64" s="203"/>
+    </row>
+    <row r="65" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>148</v>
@@ -6503,16 +6502,16 @@
       <c r="F65" s="98">
         <v>0.4</v>
       </c>
-      <c r="G65" s="212">
+      <c r="G65" s="265">
         <f>E65*F65</f>
         <v>6266.9864000000007</v>
       </c>
-      <c r="H65" s="213"/>
-    </row>
-    <row r="66" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="H65" s="266"/>
+    </row>
+    <row r="66" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>149</v>
@@ -6527,16 +6526,16 @@
       <c r="F66" s="98">
         <v>0.4</v>
       </c>
-      <c r="G66" s="205">
+      <c r="G66" s="267">
         <f>E66*F66</f>
         <v>6917.7767999999996</v>
       </c>
-      <c r="H66" s="205"/>
-    </row>
-    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H66" s="267"/>
+    </row>
+    <row r="67" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>370</v>
@@ -6551,16 +6550,16 @@
       <c r="F67" s="98">
         <v>0.4</v>
       </c>
-      <c r="G67" s="205">
+      <c r="G67" s="267">
         <f>E67*F67</f>
         <v>7118.02</v>
       </c>
-      <c r="H67" s="205"/>
-    </row>
-    <row r="68" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="H67" s="267"/>
+    </row>
+    <row r="68" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>371</v>
@@ -6575,16 +6574,16 @@
       <c r="F68" s="98">
         <v>0.4</v>
       </c>
-      <c r="G68" s="207">
+      <c r="G68" s="268">
         <f t="shared" ref="G68:G74" si="1">E68*F68</f>
         <v>7768.8104000000012</v>
       </c>
-      <c r="H68" s="207"/>
-    </row>
-    <row r="69" spans="1:8" ht="88.5" x14ac:dyDescent="0.25">
+      <c r="H68" s="268"/>
+    </row>
+    <row r="69" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>150</v>
@@ -6599,16 +6598,16 @@
       <c r="F69" s="98">
         <v>0.4</v>
       </c>
-      <c r="G69" s="207">
+      <c r="G69" s="268">
         <f t="shared" si="1"/>
         <v>10071.607199999999</v>
       </c>
-      <c r="H69" s="207"/>
-    </row>
-    <row r="70" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="H69" s="268"/>
+    </row>
+    <row r="70" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>151</v>
@@ -6623,13 +6622,13 @@
       <c r="F70" s="98">
         <v>0.4</v>
       </c>
-      <c r="G70" s="207">
+      <c r="G70" s="268">
         <f t="shared" si="1"/>
         <v>10722.3976</v>
       </c>
-      <c r="H70" s="207"/>
-    </row>
-    <row r="71" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H70" s="268"/>
+    </row>
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="33" t="s">
         <v>141</v>
@@ -6647,16 +6646,16 @@
       <c r="F71" s="98">
         <v>0.4</v>
       </c>
-      <c r="G71" s="205">
+      <c r="G71" s="267">
         <f t="shared" si="1"/>
         <v>4123.7584000000006</v>
       </c>
-      <c r="H71" s="205"/>
-    </row>
-    <row r="72" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H71" s="267"/>
+    </row>
+    <row r="72" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>153</v>
@@ -6671,16 +6670,16 @@
       <c r="F72" s="98">
         <v>0.4</v>
       </c>
-      <c r="G72" s="205">
+      <c r="G72" s="267">
         <f t="shared" si="1"/>
         <v>4674.427200000001</v>
       </c>
-      <c r="H72" s="205"/>
-    </row>
-    <row r="73" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="H72" s="267"/>
+    </row>
+    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>154</v>
@@ -6695,16 +6694,16 @@
       <c r="F73" s="98">
         <v>0.4</v>
       </c>
-      <c r="G73" s="205">
+      <c r="G73" s="267">
         <f t="shared" si="1"/>
         <v>6955.3224000000009</v>
       </c>
-      <c r="H73" s="205"/>
-    </row>
-    <row r="74" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="267"/>
+    </row>
+    <row r="74" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C74" s="34" t="s">
         <v>155</v>
@@ -6719,13 +6718,13 @@
       <c r="F74" s="98">
         <v>0.4</v>
       </c>
-      <c r="G74" s="207">
+      <c r="G74" s="268">
         <f t="shared" si="1"/>
         <v>7505.9912000000004</v>
       </c>
-      <c r="H74" s="207"/>
-    </row>
-    <row r="75" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H74" s="268"/>
+    </row>
+    <row r="75" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="31" t="s">
         <v>283</v>
@@ -6734,12 +6733,12 @@
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
-      <c r="G75" s="208">
+      <c r="G75" s="262">
         <v>6000</v>
       </c>
-      <c r="H75" s="208"/>
-    </row>
-    <row r="76" spans="1:8" s="117" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="H75" s="262"/>
+    </row>
+    <row r="76" spans="1:8" s="117" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="B76" s="173" t="s">
         <v>211</v>
@@ -6748,34 +6747,34 @@
       <c r="D76" s="174"/>
       <c r="E76" s="174"/>
       <c r="F76" s="174"/>
-      <c r="G76" s="202">
+      <c r="G76" s="203">
         <v>6000</v>
       </c>
-      <c r="H76" s="202"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="203"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
-      <c r="B77" s="268" t="s">
-        <v>459</v>
-      </c>
-      <c r="C77" s="269"/>
-      <c r="D77" s="269"/>
-      <c r="E77" s="269"/>
-      <c r="F77" s="269"/>
-      <c r="G77" s="269"/>
-      <c r="H77" s="270"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="206" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="207"/>
+      <c r="D77" s="207"/>
+      <c r="E77" s="207"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="207"/>
+      <c r="H77" s="208"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
-      <c r="B78" s="271"/>
-      <c r="C78" s="272"/>
-      <c r="D78" s="272"/>
-      <c r="E78" s="272"/>
-      <c r="F78" s="272"/>
-      <c r="G78" s="272"/>
-      <c r="H78" s="273"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="209"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="210"/>
+      <c r="E78" s="210"/>
+      <c r="F78" s="210"/>
+      <c r="G78" s="210"/>
+      <c r="H78" s="211"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
       <c r="B79" s="179"/>
       <c r="C79" s="179"/>
@@ -6785,7 +6784,7 @@
       <c r="G79" s="179"/>
       <c r="H79" s="179"/>
     </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -6795,10 +6794,10 @@
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
     </row>
-    <row r="81" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="28"/>
       <c r="B81" s="155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C81" s="156"/>
       <c r="D81" s="156"/>
@@ -6807,13 +6806,13 @@
       <c r="G81" s="160"/>
       <c r="H81" s="160"/>
     </row>
-    <row r="82" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A82" s="118"/>
       <c r="B82" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D82" s="101" t="s">
         <v>380</v>
@@ -6825,12 +6824,12 @@
       <c r="F82" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G82" s="200" t="s">
+      <c r="G82" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H82" s="200"/>
-    </row>
-    <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="H82" s="204"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="38"/>
       <c r="B83" s="39">
         <v>1</v>
@@ -6847,12 +6846,12 @@
       <c r="F83" s="183">
         <v>5</v>
       </c>
-      <c r="G83" s="209">
+      <c r="G83" s="205">
         <v>6</v>
       </c>
-      <c r="H83" s="209"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="205"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
       <c r="B84" s="40" t="s">
         <v>69</v>
@@ -6870,13 +6869,13 @@
       <c r="F84" s="49">
         <v>0.45</v>
       </c>
-      <c r="G84" s="202">
+      <c r="G84" s="203">
         <f t="shared" ref="G84:G106" si="2">E84*F84</f>
         <v>1601.5545</v>
       </c>
-      <c r="H84" s="202"/>
-    </row>
-    <row r="85" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H84" s="203"/>
+    </row>
+    <row r="85" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
       <c r="B85" s="57" t="s">
         <v>71</v>
@@ -6894,13 +6893,13 @@
       <c r="F85" s="49">
         <v>0.45</v>
       </c>
-      <c r="G85" s="202">
+      <c r="G85" s="203">
         <f t="shared" si="2"/>
         <v>1407.96</v>
       </c>
-      <c r="H85" s="202"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="203"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
       <c r="B86" s="60" t="s">
         <v>4</v>
@@ -6918,13 +6917,13 @@
       <c r="F86" s="49">
         <v>0.45</v>
       </c>
-      <c r="G86" s="202">
+      <c r="G86" s="203">
         <f t="shared" si="2"/>
         <v>66.878100000000003</v>
       </c>
-      <c r="H86" s="202"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="203"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
       <c r="B87" s="187" t="s">
         <v>2</v>
@@ -6942,13 +6941,13 @@
       <c r="F87" s="49">
         <v>0.45</v>
       </c>
-      <c r="G87" s="202">
+      <c r="G87" s="203">
         <f t="shared" si="2"/>
         <v>102.0771</v>
       </c>
-      <c r="H87" s="202"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="203"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
       <c r="B88" s="40" t="s">
         <v>75</v>
@@ -6966,13 +6965,13 @@
       <c r="F88" s="49">
         <v>0.45</v>
       </c>
-      <c r="G88" s="202">
+      <c r="G88" s="203">
         <f t="shared" si="2"/>
         <v>119.67659999999999</v>
       </c>
-      <c r="H88" s="202"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="203"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
       <c r="B89" s="40" t="s">
         <v>77</v>
@@ -6990,13 +6989,13 @@
       <c r="F89" s="49">
         <v>0.45</v>
       </c>
-      <c r="G89" s="202">
+      <c r="G89" s="203">
         <f t="shared" si="2"/>
         <v>570.22379999999998</v>
       </c>
-      <c r="H89" s="202"/>
-    </row>
-    <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H89" s="203"/>
+    </row>
+    <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
       <c r="B90" s="40" t="s">
         <v>79</v>
@@ -7014,13 +7013,13 @@
       <c r="F90" s="49">
         <v>0.45</v>
       </c>
-      <c r="G90" s="202">
+      <c r="G90" s="203">
         <f t="shared" si="2"/>
         <v>249.91289999999998</v>
       </c>
-      <c r="H90" s="202"/>
-    </row>
-    <row r="91" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H90" s="203"/>
+    </row>
+    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
       <c r="B91" s="40" t="s">
         <v>16</v>
@@ -7038,13 +7037,13 @@
       <c r="F91" s="49">
         <v>0.45</v>
       </c>
-      <c r="G91" s="202">
+      <c r="G91" s="203">
         <f t="shared" si="2"/>
         <v>482.22630000000004</v>
       </c>
-      <c r="H91" s="202"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="203"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
       <c r="B92" s="44"/>
       <c r="C92" s="45"/>
@@ -7054,7 +7053,7 @@
       <c r="G92" s="45"/>
       <c r="H92" s="44"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="30"/>
       <c r="B93" s="44"/>
       <c r="C93" s="45"/>
@@ -7064,10 +7063,10 @@
       <c r="G93" s="45"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="30"/>
       <c r="B94" s="185" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C94" s="185"/>
       <c r="D94" s="185"/>
@@ -7076,13 +7075,13 @@
       <c r="G94" s="185"/>
       <c r="H94" s="185"/>
     </row>
-    <row r="95" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A95" s="30"/>
       <c r="B95" s="107" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D95" s="107" t="s">
         <v>380</v>
@@ -7094,12 +7093,12 @@
       <c r="F95" s="107" t="s">
         <v>387</v>
       </c>
-      <c r="G95" s="200" t="s">
+      <c r="G95" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H95" s="200"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="204"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="30"/>
       <c r="B96" s="21">
         <v>1</v>
@@ -7116,12 +7115,12 @@
       <c r="F96" s="21">
         <v>5</v>
       </c>
-      <c r="G96" s="209">
+      <c r="G96" s="205">
         <v>6</v>
       </c>
-      <c r="H96" s="209"/>
-    </row>
-    <row r="97" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H96" s="205"/>
+    </row>
+    <row r="97" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="40" t="s">
         <v>80</v>
@@ -7139,13 +7138,13 @@
       <c r="F97" s="98">
         <v>0.4</v>
       </c>
-      <c r="G97" s="202">
+      <c r="G97" s="203">
         <f t="shared" si="2"/>
         <v>2959.8447999999999</v>
       </c>
-      <c r="H97" s="202"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="203"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="30"/>
       <c r="B98" s="40" t="s">
         <v>54</v>
@@ -7163,13 +7162,13 @@
       <c r="F98" s="98">
         <v>0.4</v>
       </c>
-      <c r="G98" s="202">
+      <c r="G98" s="203">
         <f t="shared" si="2"/>
         <v>4549.2752</v>
       </c>
-      <c r="H98" s="202"/>
-    </row>
-    <row r="99" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H98" s="203"/>
+    </row>
+    <row r="99" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A99" s="30"/>
       <c r="B99" s="40" t="s">
         <v>83</v>
@@ -7187,13 +7186,13 @@
       <c r="F99" s="98">
         <v>0.4</v>
       </c>
-      <c r="G99" s="202">
+      <c r="G99" s="203">
         <f t="shared" si="2"/>
         <v>2568.7447999999999</v>
       </c>
-      <c r="H99" s="202"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="203"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="30"/>
       <c r="B100" s="40" t="s">
         <v>54</v>
@@ -7211,13 +7210,13 @@
       <c r="F100" s="98">
         <v>0.4</v>
       </c>
-      <c r="G100" s="202">
+      <c r="G100" s="203">
         <f t="shared" si="2"/>
         <v>3044.3224</v>
       </c>
-      <c r="H100" s="202"/>
-    </row>
-    <row r="101" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H100" s="203"/>
+    </row>
+    <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A101" s="30"/>
       <c r="B101" s="40" t="s">
         <v>86</v>
@@ -7235,13 +7234,13 @@
       <c r="F101" s="98">
         <v>0.4</v>
       </c>
-      <c r="G101" s="202">
+      <c r="G101" s="203">
         <f t="shared" si="2"/>
         <v>3939.1592000000005</v>
       </c>
-      <c r="H101" s="202"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="203"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="30"/>
       <c r="B102" s="40" t="s">
         <v>66</v>
@@ -7259,13 +7258,13 @@
       <c r="F102" s="98">
         <v>0.4</v>
       </c>
-      <c r="G102" s="202">
+      <c r="G102" s="203">
         <f t="shared" si="2"/>
         <v>328.524</v>
       </c>
-      <c r="H102" s="202"/>
-    </row>
-    <row r="103" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H102" s="203"/>
+    </row>
+    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="30"/>
       <c r="B103" s="41" t="s">
         <v>143</v>
@@ -7283,16 +7282,16 @@
       <c r="F103" s="98">
         <v>0.4</v>
       </c>
-      <c r="G103" s="205">
+      <c r="G103" s="267">
         <f t="shared" si="2"/>
         <v>4267.6832000000004</v>
       </c>
-      <c r="H103" s="205"/>
-    </row>
-    <row r="104" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="H103" s="267"/>
+    </row>
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="30"/>
       <c r="B104" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C104" s="42" t="s">
         <v>145</v>
@@ -7307,13 +7306,13 @@
       <c r="F104" s="98">
         <v>0.4</v>
       </c>
-      <c r="G104" s="205">
+      <c r="G104" s="267">
         <f t="shared" si="2"/>
         <v>6104.2888000000003</v>
       </c>
-      <c r="H104" s="205"/>
-    </row>
-    <row r="105" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H104" s="267"/>
+    </row>
+    <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="30"/>
       <c r="B105" s="41" t="s">
         <v>144</v>
@@ -7331,16 +7330,16 @@
       <c r="F105" s="98">
         <v>0.4</v>
       </c>
-      <c r="G105" s="207">
+      <c r="G105" s="268">
         <f t="shared" si="2"/>
         <v>3288.3687999999997</v>
       </c>
-      <c r="H105" s="207"/>
-    </row>
-    <row r="106" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="H105" s="268"/>
+    </row>
+    <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="43"/>
       <c r="B106" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C106" s="42" t="s">
         <v>147</v>
@@ -7355,13 +7354,13 @@
       <c r="F106" s="98">
         <v>0.4</v>
       </c>
-      <c r="G106" s="205">
+      <c r="G106" s="267">
         <f t="shared" si="2"/>
         <v>4877.7992000000004</v>
       </c>
-      <c r="H106" s="205"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="267"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="43"/>
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
@@ -7371,7 +7370,7 @@
       <c r="G107" s="45"/>
       <c r="H107" s="45"/>
     </row>
-    <row r="108" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="43"/>
       <c r="B108" s="30"/>
       <c r="C108" s="103"/>
@@ -7381,10 +7380,10 @@
       <c r="G108" s="103"/>
       <c r="H108" s="117"/>
     </row>
-    <row r="109" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="28"/>
       <c r="B109" s="151" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C109" s="152"/>
       <c r="D109" s="152"/>
@@ -7393,13 +7392,13 @@
       <c r="G109" s="152"/>
       <c r="H109" s="152"/>
     </row>
-    <row r="110" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A110" s="122"/>
       <c r="B110" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D110" s="101" t="s">
         <v>380</v>
@@ -7411,12 +7410,12 @@
       <c r="F110" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G110" s="244" t="s">
+      <c r="G110" s="200" t="s">
         <v>388</v>
       </c>
-      <c r="H110" s="244"/>
-    </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="H110" s="200"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="47"/>
       <c r="B111" s="102">
         <v>1</v>
@@ -7433,12 +7432,12 @@
       <c r="F111" s="48">
         <v>5</v>
       </c>
-      <c r="G111" s="259">
+      <c r="G111" s="201">
         <v>6</v>
       </c>
-      <c r="H111" s="259"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="201"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="30"/>
       <c r="B112" s="40" t="s">
         <v>2</v>
@@ -7456,13 +7455,13 @@
       <c r="F112" s="49">
         <v>0.45</v>
       </c>
-      <c r="G112" s="229">
+      <c r="G112" s="202">
         <f t="shared" ref="G112:G123" si="3">E112*F112</f>
         <v>211.19399999999999</v>
       </c>
-      <c r="H112" s="229"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="202"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="30"/>
       <c r="B113" s="40" t="s">
         <v>4</v>
@@ -7480,13 +7479,13 @@
       <c r="F113" s="49">
         <v>0.45</v>
       </c>
-      <c r="G113" s="229">
+      <c r="G113" s="202">
         <f t="shared" si="3"/>
         <v>66.878100000000003</v>
       </c>
-      <c r="H113" s="229"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="202"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="30"/>
       <c r="B114" s="40" t="s">
         <v>91</v>
@@ -7504,13 +7503,13 @@
       <c r="F114" s="49">
         <v>0.45</v>
       </c>
-      <c r="G114" s="229">
+      <c r="G114" s="202">
         <f t="shared" si="3"/>
         <v>281.59199999999998</v>
       </c>
-      <c r="H114" s="229"/>
-    </row>
-    <row r="115" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H114" s="202"/>
+    </row>
+    <row r="115" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="30"/>
       <c r="B115" s="40" t="s">
         <v>295</v>
@@ -7528,13 +7527,13 @@
       <c r="F115" s="49">
         <v>0.45</v>
       </c>
-      <c r="G115" s="229">
+      <c r="G115" s="202">
         <f t="shared" si="3"/>
         <v>4301.3178000000007</v>
       </c>
-      <c r="H115" s="229"/>
-    </row>
-    <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H115" s="202"/>
+    </row>
+    <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="30"/>
       <c r="B116" s="40" t="s">
         <v>276</v>
@@ -7552,13 +7551,13 @@
       <c r="F116" s="49">
         <v>0.45</v>
       </c>
-      <c r="G116" s="229">
+      <c r="G116" s="202">
         <f t="shared" si="3"/>
         <v>5174.2530000000006</v>
       </c>
-      <c r="H116" s="229"/>
-    </row>
-    <row r="117" spans="1:8" ht="53.5" x14ac:dyDescent="0.25">
+      <c r="H116" s="202"/>
+    </row>
+    <row r="117" spans="1:8" ht="53.25" x14ac:dyDescent="0.2">
       <c r="A117" s="30"/>
       <c r="B117" s="40" t="s">
         <v>391</v>
@@ -7576,13 +7575,13 @@
       <c r="F117" s="49">
         <v>0.85</v>
       </c>
-      <c r="G117" s="229">
+      <c r="G117" s="202">
         <f t="shared" si="3"/>
         <v>8124.7114000000001</v>
       </c>
-      <c r="H117" s="229"/>
-    </row>
-    <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H117" s="202"/>
+    </row>
+    <row r="118" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A118" s="30"/>
       <c r="B118" s="40" t="s">
         <v>392</v>
@@ -7600,13 +7599,13 @@
       <c r="F118" s="49">
         <v>0.85</v>
       </c>
-      <c r="G118" s="229">
+      <c r="G118" s="202">
         <f t="shared" si="3"/>
         <v>9773.5889999999999</v>
       </c>
-      <c r="H118" s="229"/>
-    </row>
-    <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H118" s="202"/>
+    </row>
+    <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="30"/>
       <c r="B119" s="40" t="s">
         <v>275</v>
@@ -7624,13 +7623,13 @@
       <c r="F119" s="49">
         <v>0.45</v>
       </c>
-      <c r="G119" s="229">
+      <c r="G119" s="202">
         <f t="shared" si="3"/>
         <v>5888.7927</v>
       </c>
-      <c r="H119" s="229"/>
-    </row>
-    <row r="120" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H119" s="202"/>
+    </row>
+    <row r="120" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="30"/>
       <c r="B120" s="40" t="s">
         <v>278</v>
@@ -7648,13 +7647,13 @@
       <c r="F120" s="49">
         <v>0.45</v>
       </c>
-      <c r="G120" s="229">
+      <c r="G120" s="202">
         <f t="shared" si="3"/>
         <v>7338.9915000000001</v>
       </c>
-      <c r="H120" s="229"/>
-    </row>
-    <row r="121" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="H120" s="202"/>
+    </row>
+    <row r="121" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A121" s="30"/>
       <c r="B121" s="40" t="s">
         <v>390</v>
@@ -7672,13 +7671,13 @@
       <c r="F121" s="49">
         <v>0.85</v>
       </c>
-      <c r="G121" s="229">
+      <c r="G121" s="202">
         <f t="shared" si="3"/>
         <v>11123.275099999999</v>
       </c>
-      <c r="H121" s="229"/>
-    </row>
-    <row r="122" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
+      <c r="H121" s="202"/>
+    </row>
+    <row r="122" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A122" s="30"/>
       <c r="B122" s="40" t="s">
         <v>389</v>
@@ -7696,13 +7695,13 @@
       <c r="F122" s="49">
         <v>0.85</v>
       </c>
-      <c r="G122" s="229">
+      <c r="G122" s="202">
         <f t="shared" si="3"/>
         <v>13862.539499999999</v>
       </c>
-      <c r="H122" s="229"/>
-    </row>
-    <row r="123" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H122" s="202"/>
+    </row>
+    <row r="123" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="30"/>
       <c r="B123" s="40" t="s">
         <v>305</v>
@@ -7720,13 +7719,13 @@
       <c r="F123" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G123" s="229">
+      <c r="G123" s="202">
         <f t="shared" si="3"/>
         <v>3983.7446</v>
       </c>
-      <c r="H123" s="229"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="202"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="30"/>
       <c r="B124" s="44"/>
       <c r="C124" s="45"/>
@@ -7736,7 +7735,7 @@
       <c r="G124" s="45"/>
       <c r="H124" s="44"/>
     </row>
-    <row r="125" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
       <c r="C125" s="103"/>
@@ -7746,10 +7745,10 @@
       <c r="G125" s="103"/>
       <c r="H125" s="35"/>
     </row>
-    <row r="126" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="151" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C126" s="152"/>
       <c r="D126" s="152"/>
@@ -7758,13 +7757,13 @@
       <c r="G126" s="152"/>
       <c r="H126" s="152"/>
     </row>
-    <row r="127" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A127" s="30"/>
       <c r="B127" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D127" s="101" t="s">
         <v>380</v>
@@ -7773,13 +7772,13 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на IV кв 2025 г.: (78,22) руб.</v>
       </c>
-      <c r="F127" s="244" t="s">
-        <v>464</v>
-      </c>
-      <c r="G127" s="244"/>
-      <c r="H127" s="244"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="200" t="s">
+        <v>463</v>
+      </c>
+      <c r="G127" s="200"/>
+      <c r="H127" s="200"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
       <c r="B128" s="102">
         <v>1</v>
@@ -7793,13 +7792,13 @@
       <c r="E128" s="102">
         <v>4</v>
       </c>
-      <c r="F128" s="239">
+      <c r="F128" s="269">
         <v>5</v>
       </c>
-      <c r="G128" s="240"/>
-      <c r="H128" s="241"/>
-    </row>
-    <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G128" s="270"/>
+      <c r="H128" s="271"/>
+    </row>
+    <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="30"/>
       <c r="B129" s="40" t="s">
         <v>297</v>
@@ -7814,14 +7813,14 @@
         <f>D129*Лист2!$B$3</f>
         <v>9558.4840000000004</v>
       </c>
-      <c r="F129" s="229">
+      <c r="F129" s="202">
         <f>E129*4</f>
         <v>38233.936000000002</v>
       </c>
-      <c r="G129" s="229"/>
-      <c r="H129" s="229"/>
-    </row>
-    <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G129" s="202"/>
+      <c r="H129" s="202"/>
+    </row>
+    <row r="130" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="30"/>
       <c r="B130" s="40" t="s">
         <v>298</v>
@@ -7836,17 +7835,17 @@
         <f>D130*Лист2!$B$3</f>
         <v>11498.34</v>
       </c>
-      <c r="F130" s="229">
+      <c r="F130" s="202">
         <f>E130*4</f>
         <v>45993.36</v>
       </c>
-      <c r="G130" s="229"/>
-      <c r="H130" s="229"/>
-    </row>
-    <row r="131" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G130" s="202"/>
+      <c r="H130" s="202"/>
+    </row>
+    <row r="131" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A131" s="30"/>
       <c r="B131" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C131" s="99" t="s">
         <v>274</v>
@@ -7858,17 +7857,17 @@
         <f>D131*Лист2!$B$3</f>
         <v>13086.206</v>
       </c>
-      <c r="F131" s="229">
+      <c r="F131" s="202">
         <f>E131*3</f>
         <v>39258.618000000002</v>
       </c>
-      <c r="G131" s="229"/>
-      <c r="H131" s="229"/>
-    </row>
-    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G131" s="202"/>
+      <c r="H131" s="202"/>
+    </row>
+    <row r="132" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A132" s="30"/>
       <c r="B132" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C132" s="99" t="s">
         <v>279</v>
@@ -7880,17 +7879,17 @@
         <f>D132*Лист2!$B$3</f>
         <v>16308.869999999999</v>
       </c>
-      <c r="F132" s="229">
+      <c r="F132" s="202">
         <f>E132*3</f>
         <v>48926.61</v>
       </c>
-      <c r="G132" s="229"/>
-      <c r="H132" s="229"/>
-    </row>
-    <row r="133" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G132" s="202"/>
+      <c r="H132" s="202"/>
+    </row>
+    <row r="133" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A133" s="30"/>
       <c r="B133" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C133" s="99" t="s">
         <v>274</v>
@@ -7902,17 +7901,17 @@
         <f>D133*Лист2!$B$3</f>
         <v>13086.206</v>
       </c>
-      <c r="F133" s="229">
+      <c r="F133" s="202">
         <f>E133*3.5</f>
         <v>45801.720999999998</v>
       </c>
-      <c r="G133" s="229"/>
-      <c r="H133" s="229"/>
-    </row>
-    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="G133" s="202"/>
+      <c r="H133" s="202"/>
+    </row>
+    <row r="134" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A134" s="30"/>
       <c r="B134" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C134" s="99" t="s">
         <v>279</v>
@@ -7924,14 +7923,14 @@
         <f>D134*Лист2!$B$3</f>
         <v>16308.869999999999</v>
       </c>
-      <c r="F134" s="229">
+      <c r="F134" s="202">
         <f>E134*3.5</f>
         <v>57081.044999999998</v>
       </c>
-      <c r="G134" s="229"/>
-      <c r="H134" s="229"/>
-    </row>
-    <row r="135" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G134" s="202"/>
+      <c r="H134" s="202"/>
+    </row>
+    <row r="135" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A135" s="30"/>
       <c r="B135" s="40" t="s">
         <v>306</v>
@@ -7946,14 +7945,14 @@
         <f>D135*Лист2!$B$3</f>
         <v>13086.206</v>
       </c>
-      <c r="F135" s="229">
+      <c r="F135" s="202">
         <f>E135*1.2</f>
         <v>15703.447199999999</v>
       </c>
-      <c r="G135" s="229"/>
-      <c r="H135" s="229"/>
-    </row>
-    <row r="136" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G135" s="202"/>
+      <c r="H135" s="202"/>
+    </row>
+    <row r="136" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A136" s="30"/>
       <c r="B136" s="40" t="s">
         <v>307</v>
@@ -7968,14 +7967,14 @@
         <f>D136*Лист2!$B$3</f>
         <v>16308.869999999999</v>
       </c>
-      <c r="F136" s="229">
+      <c r="F136" s="202">
         <f>E136*1.2</f>
         <v>19570.643999999997</v>
       </c>
-      <c r="G136" s="229"/>
-      <c r="H136" s="229"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="202"/>
+      <c r="H136" s="202"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="30"/>
       <c r="B137" s="40" t="s">
         <v>304</v>
@@ -7990,14 +7989,14 @@
         <f>D137*Лист2!$B$3</f>
         <v>11498.34</v>
       </c>
-      <c r="F137" s="229">
+      <c r="F137" s="202">
         <f>E137*3.3</f>
         <v>37944.521999999997</v>
       </c>
-      <c r="G137" s="229"/>
-      <c r="H137" s="229"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="202"/>
+      <c r="H137" s="202"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="30"/>
       <c r="B138" s="40" t="s">
         <v>379</v>
@@ -8012,14 +8011,14 @@
         <f>D138*Лист2!$B$3</f>
         <v>11498.34</v>
       </c>
-      <c r="F138" s="229">
+      <c r="F138" s="202">
         <f>E138*3.3</f>
         <v>37944.521999999997</v>
       </c>
-      <c r="G138" s="229"/>
-      <c r="H138" s="229"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G138" s="202"/>
+      <c r="H138" s="202"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="30"/>
       <c r="B139" s="40" t="s">
         <v>309</v>
@@ -8034,14 +8033,14 @@
         <f>D139*Лист2!$B$3</f>
         <v>11498.34</v>
       </c>
-      <c r="F139" s="229">
+      <c r="F139" s="202">
         <f>E139*5</f>
         <v>57491.7</v>
       </c>
-      <c r="G139" s="229"/>
-      <c r="H139" s="229"/>
-    </row>
-    <row r="140" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="G139" s="202"/>
+      <c r="H139" s="202"/>
+    </row>
+    <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="30"/>
       <c r="B140" s="40" t="s">
         <v>308</v>
@@ -8056,14 +8055,14 @@
         <f>D140*Лист2!$B$3</f>
         <v>7243.1719999999996</v>
       </c>
-      <c r="F140" s="229">
+      <c r="F140" s="202">
         <f>E140*2</f>
         <v>14486.343999999999</v>
       </c>
-      <c r="G140" s="229"/>
-      <c r="H140" s="229"/>
-    </row>
-    <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="G140" s="202"/>
+      <c r="H140" s="202"/>
+    </row>
+    <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="30"/>
       <c r="B141" s="44"/>
       <c r="C141" s="45"/>
@@ -8073,7 +8072,7 @@
       <c r="G141" s="45"/>
       <c r="H141" s="35"/>
     </row>
-    <row r="142" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="30"/>
       <c r="B142" s="30"/>
       <c r="C142" s="103"/>
@@ -8083,10 +8082,10 @@
       <c r="G142" s="103"/>
       <c r="H142" s="35"/>
     </row>
-    <row r="143" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="30"/>
       <c r="B143" s="151" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C143" s="152"/>
       <c r="D143" s="152"/>
@@ -8095,13 +8094,13 @@
       <c r="G143" s="152"/>
       <c r="H143" s="152"/>
     </row>
-    <row r="144" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A144" s="30"/>
       <c r="B144" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D144" s="101" t="s">
         <v>380</v>
@@ -8110,13 +8109,13 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на IV кв 2025 г.: (78,22) руб.</v>
       </c>
-      <c r="F144" s="244" t="s">
-        <v>425</v>
-      </c>
-      <c r="G144" s="244"/>
-      <c r="H144" s="244"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="200" t="s">
+        <v>424</v>
+      </c>
+      <c r="G144" s="200"/>
+      <c r="H144" s="200"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="30"/>
       <c r="B145" s="102">
         <v>1</v>
@@ -8130,16 +8129,16 @@
       <c r="E145" s="102">
         <v>4</v>
       </c>
-      <c r="F145" s="239">
+      <c r="F145" s="269">
         <v>5</v>
       </c>
-      <c r="G145" s="240"/>
-      <c r="H145" s="241"/>
-    </row>
-    <row r="146" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="G145" s="270"/>
+      <c r="H145" s="271"/>
+    </row>
+    <row r="146" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="30"/>
       <c r="B146" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C146" s="99" t="s">
         <v>95</v>
@@ -8151,14 +8150,14 @@
         <f>D146*Лист2!$B$3</f>
         <v>57992.307999999997</v>
       </c>
-      <c r="F146" s="229">
+      <c r="F146" s="202">
         <f>E146*1</f>
         <v>57992.307999999997</v>
       </c>
-      <c r="G146" s="229"/>
-      <c r="H146" s="229"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="202"/>
+      <c r="H146" s="202"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="30"/>
       <c r="B147" s="44"/>
       <c r="C147" s="45"/>
@@ -8168,7 +8167,7 @@
       <c r="G147" s="45"/>
       <c r="H147" s="45"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="30"/>
       <c r="B148" s="44"/>
       <c r="C148" s="45"/>
@@ -8178,20 +8177,20 @@
       <c r="G148" s="45"/>
       <c r="H148" s="45"/>
     </row>
-    <row r="149" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="43"/>
-      <c r="B149" s="242"/>
-      <c r="C149" s="242"/>
-      <c r="D149" s="242"/>
-      <c r="E149" s="242"/>
-      <c r="F149" s="242"/>
-      <c r="G149" s="242"/>
+      <c r="B149" s="248"/>
+      <c r="C149" s="248"/>
+      <c r="D149" s="248"/>
+      <c r="E149" s="248"/>
+      <c r="F149" s="248"/>
+      <c r="G149" s="248"/>
       <c r="H149" s="117"/>
     </row>
-    <row r="150" spans="1:8" ht="35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A150" s="28"/>
       <c r="B150" s="188" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C150" s="189"/>
       <c r="D150" s="189"/>
@@ -8200,10 +8199,10 @@
       <c r="G150" s="189"/>
       <c r="H150" s="189"/>
     </row>
-    <row r="151" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A151" s="28"/>
       <c r="B151" s="153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C151" s="154"/>
       <c r="D151" s="154"/>
@@ -8212,13 +8211,13 @@
       <c r="G151" s="154"/>
       <c r="H151" s="154"/>
     </row>
-    <row r="152" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A152" s="118"/>
       <c r="B152" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D152" s="101" t="s">
         <v>380</v>
@@ -8230,12 +8229,12 @@
       <c r="F152" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="G152" s="200" t="s">
+      <c r="G152" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H152" s="200"/>
-    </row>
-    <row r="153" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="H152" s="204"/>
+    </row>
+    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="38"/>
       <c r="B153" s="102">
         <v>1</v>
@@ -8252,12 +8251,12 @@
       <c r="F153" s="102">
         <v>5</v>
       </c>
-      <c r="G153" s="206">
+      <c r="G153" s="212">
         <v>6</v>
       </c>
-      <c r="H153" s="206"/>
-    </row>
-    <row r="154" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="H153" s="212"/>
+    </row>
+    <row r="154" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A154" s="38"/>
       <c r="B154" s="51" t="s">
         <v>139</v>
@@ -8275,13 +8274,13 @@
       <c r="F154" s="32">
         <v>0.25</v>
       </c>
-      <c r="G154" s="202">
+      <c r="G154" s="203">
         <f t="shared" ref="G154:G158" si="4">E154*F154</f>
         <v>14498.076999999999</v>
       </c>
-      <c r="H154" s="202"/>
-    </row>
-    <row r="155" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H154" s="203"/>
+    </row>
+    <row r="155" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A155" s="38"/>
       <c r="B155" s="51" t="s">
         <v>140</v>
@@ -8299,16 +8298,16 @@
       <c r="F155" s="32">
         <v>0.25</v>
       </c>
-      <c r="G155" s="202">
+      <c r="G155" s="203">
         <f t="shared" si="4"/>
         <v>8054.7044999999998</v>
       </c>
-      <c r="H155" s="202"/>
-    </row>
-    <row r="156" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H155" s="203"/>
+    </row>
+    <row r="156" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C156" s="99" t="s">
         <v>94</v>
@@ -8323,13 +8322,13 @@
       <c r="F156" s="32">
         <v>0.25</v>
       </c>
-      <c r="G156" s="202">
+      <c r="G156" s="203">
         <f t="shared" si="4"/>
         <v>3279.3734999999997</v>
       </c>
-      <c r="H156" s="202"/>
-    </row>
-    <row r="157" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="H156" s="203"/>
+    </row>
+    <row r="157" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A157" s="52"/>
       <c r="B157" s="51" t="s">
         <v>136</v>
@@ -8347,13 +8346,13 @@
       <c r="F157" s="32">
         <v>0.25</v>
       </c>
-      <c r="G157" s="202">
+      <c r="G157" s="203">
         <f t="shared" si="4"/>
         <v>7362.4574999999995</v>
       </c>
-      <c r="H157" s="202"/>
-    </row>
-    <row r="158" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H157" s="203"/>
+    </row>
+    <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="52"/>
       <c r="B158" s="51" t="s">
         <v>137</v>
@@ -8371,13 +8370,13 @@
       <c r="F158" s="32">
         <v>0.25</v>
       </c>
-      <c r="G158" s="202">
+      <c r="G158" s="203">
         <f t="shared" si="4"/>
         <v>1711.0625</v>
       </c>
-      <c r="H158" s="202"/>
-    </row>
-    <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="H158" s="203"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="52"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
@@ -8387,7 +8386,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="52"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
@@ -8397,10 +8396,10 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="28"/>
       <c r="B161" s="151" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C161" s="152"/>
       <c r="D161" s="152"/>
@@ -8409,13 +8408,13 @@
       <c r="G161" s="152"/>
       <c r="H161" s="152"/>
     </row>
-    <row r="162" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A162" s="122"/>
       <c r="B162" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D162" s="101" t="s">
         <v>380</v>
@@ -8427,12 +8426,12 @@
       <c r="F162" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G162" s="200" t="s">
+      <c r="G162" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H162" s="200"/>
-    </row>
-    <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="H162" s="204"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="53"/>
       <c r="B163" s="54">
         <v>1</v>
@@ -8449,15 +8448,15 @@
       <c r="F163" s="108">
         <v>5</v>
       </c>
-      <c r="G163" s="201">
+      <c r="G163" s="246">
         <v>6</v>
       </c>
-      <c r="H163" s="201"/>
-    </row>
-    <row r="164" spans="1:8" ht="39" x14ac:dyDescent="0.3">
+      <c r="H163" s="246"/>
+    </row>
+    <row r="164" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="53"/>
       <c r="B164" s="195" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C164" s="196" t="s">
         <v>95</v>
@@ -8472,16 +8471,16 @@
       <c r="F164" s="197">
         <v>0.45</v>
       </c>
-      <c r="G164" s="203">
+      <c r="G164" s="247">
         <f t="shared" ref="G164:G170" si="5">E164*F164</f>
         <v>26096.5386</v>
       </c>
-      <c r="H164" s="203"/>
-    </row>
-    <row r="165" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="H164" s="247"/>
+    </row>
+    <row r="165" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A165" s="53"/>
       <c r="B165" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C165" s="99" t="s">
         <v>127</v>
@@ -8496,13 +8495,13 @@
       <c r="F165" s="49">
         <v>0.45</v>
       </c>
-      <c r="G165" s="202">
+      <c r="G165" s="203">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H165" s="202"/>
-    </row>
-    <row r="166" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H165" s="203"/>
+    </row>
+    <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="56"/>
       <c r="B166" s="40" t="s">
         <v>351</v>
@@ -8520,13 +8519,13 @@
       <c r="F166" s="49">
         <v>0.45</v>
       </c>
-      <c r="G166" s="202">
+      <c r="G166" s="203">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H166" s="202"/>
-    </row>
-    <row r="167" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H166" s="203"/>
+    </row>
+    <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="56"/>
       <c r="B167" s="40" t="s">
         <v>293</v>
@@ -8544,16 +8543,16 @@
       <c r="F167" s="49">
         <v>0.45</v>
       </c>
-      <c r="G167" s="202">
+      <c r="G167" s="203">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H167" s="202"/>
-    </row>
-    <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H167" s="203"/>
+    </row>
+    <row r="168" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="56"/>
       <c r="B168" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C168" s="99" t="s">
         <v>95</v>
@@ -8568,13 +8567,13 @@
       <c r="F168" s="49">
         <v>0.45</v>
       </c>
-      <c r="G168" s="202">
+      <c r="G168" s="203">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H168" s="202"/>
-    </row>
-    <row r="169" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H168" s="203"/>
+    </row>
+    <row r="169" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="56"/>
       <c r="B169" s="57" t="s">
         <v>372</v>
@@ -8592,13 +8591,13 @@
       <c r="F169" s="109">
         <v>0.45</v>
       </c>
-      <c r="G169" s="204">
+      <c r="G169" s="236">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H169" s="204"/>
-    </row>
-    <row r="170" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H169" s="236"/>
+    </row>
+    <row r="170" spans="1:8" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="56"/>
       <c r="B170" s="60" t="s">
         <v>287</v>
@@ -8616,19 +8615,19 @@
       <c r="F170" s="61">
         <v>0.45</v>
       </c>
-      <c r="G170" s="202">
+      <c r="G170" s="203">
         <f t="shared" si="5"/>
         <v>26096.5386</v>
       </c>
-      <c r="H170" s="202"/>
-    </row>
-    <row r="171" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="H170" s="203"/>
+    </row>
+    <row r="171" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="56"/>
       <c r="B171" s="190" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C171" s="191" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D171" s="191">
         <v>247.13</v>
@@ -8640,19 +8639,19 @@
       <c r="F171" s="192">
         <v>0.25</v>
       </c>
-      <c r="G171" s="257">
+      <c r="G171" s="244">
         <f>E171*F171</f>
         <v>4832.6271500000003</v>
       </c>
-      <c r="H171" s="258"/>
-    </row>
-    <row r="172" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="H171" s="245"/>
+    </row>
+    <row r="172" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="56"/>
       <c r="B172" s="190" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C172" s="191" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D172" s="191">
         <v>137.30000000000001</v>
@@ -8664,19 +8663,19 @@
       <c r="F172" s="192">
         <v>0.25</v>
       </c>
-      <c r="G172" s="257">
+      <c r="G172" s="244">
         <f t="shared" ref="G172:G173" si="6">E172*F172</f>
         <v>2684.9015000000004</v>
       </c>
-      <c r="H172" s="258"/>
-    </row>
-    <row r="173" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="H172" s="245"/>
+    </row>
+    <row r="173" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="56"/>
       <c r="B173" s="190" t="s">
+        <v>464</v>
+      </c>
+      <c r="C173" s="193" t="s">
         <v>465</v>
-      </c>
-      <c r="C173" s="193" t="s">
-        <v>466</v>
       </c>
       <c r="D173" s="194">
         <v>494.26</v>
@@ -8688,19 +8687,19 @@
       <c r="F173" s="192">
         <v>0.25</v>
       </c>
-      <c r="G173" s="257">
+      <c r="G173" s="244">
         <f t="shared" si="6"/>
         <v>9665.2543000000005</v>
       </c>
-      <c r="H173" s="258"/>
-    </row>
-    <row r="174" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="H173" s="245"/>
+    </row>
+    <row r="174" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="56"/>
       <c r="B174" s="190" t="s">
+        <v>466</v>
+      </c>
+      <c r="C174" s="193" t="s">
         <v>467</v>
-      </c>
-      <c r="C174" s="193" t="s">
-        <v>468</v>
       </c>
       <c r="D174" s="194">
         <v>274.60000000000002</v>
@@ -8712,45 +8711,45 @@
       <c r="F174" s="192">
         <v>0.25</v>
       </c>
-      <c r="G174" s="257">
+      <c r="G174" s="244">
         <f>E174*F174</f>
         <v>5369.8030000000008</v>
       </c>
-      <c r="H174" s="258"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="245"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="56"/>
-      <c r="B175" s="252" t="s">
-        <v>461</v>
-      </c>
-      <c r="C175" s="253"/>
-      <c r="D175" s="253"/>
-      <c r="E175" s="253"/>
-      <c r="F175" s="253"/>
-      <c r="G175" s="253"/>
-      <c r="H175" s="254"/>
-    </row>
-    <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="B175" s="237" t="s">
+        <v>460</v>
+      </c>
+      <c r="C175" s="238"/>
+      <c r="D175" s="238"/>
+      <c r="E175" s="238"/>
+      <c r="F175" s="238"/>
+      <c r="G175" s="238"/>
+      <c r="H175" s="239"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="36"/>
-      <c r="B176" s="235"/>
-      <c r="C176" s="236"/>
-      <c r="D176" s="236"/>
-      <c r="E176" s="236"/>
-      <c r="F176" s="236"/>
-      <c r="G176" s="236"/>
-      <c r="H176" s="237"/>
-    </row>
-    <row r="177" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="B176" s="240"/>
+      <c r="C176" s="241"/>
+      <c r="D176" s="241"/>
+      <c r="E176" s="241"/>
+      <c r="F176" s="241"/>
+      <c r="G176" s="241"/>
+      <c r="H176" s="242"/>
+    </row>
+    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="36"/>
-      <c r="B177" s="243"/>
-      <c r="C177" s="243"/>
-      <c r="D177" s="243"/>
-      <c r="E177" s="243"/>
-      <c r="F177" s="243"/>
-      <c r="G177" s="243"/>
-      <c r="H177" s="243"/>
-    </row>
-    <row r="178" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="B177" s="249"/>
+      <c r="C177" s="249"/>
+      <c r="D177" s="249"/>
+      <c r="E177" s="249"/>
+      <c r="F177" s="249"/>
+      <c r="G177" s="249"/>
+      <c r="H177" s="249"/>
+    </row>
+    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="36"/>
       <c r="B178" s="59"/>
       <c r="C178" s="59"/>
@@ -8760,10 +8759,10 @@
       <c r="G178" s="59"/>
       <c r="H178" s="59"/>
     </row>
-    <row r="179" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="36"/>
       <c r="B179" s="152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C179" s="152"/>
       <c r="D179" s="152"/>
@@ -8772,13 +8771,13 @@
       <c r="G179" s="152"/>
       <c r="H179" s="152"/>
     </row>
-    <row r="180" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A180" s="36"/>
       <c r="B180" s="101" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D180" s="101" t="s">
         <v>380</v>
@@ -8790,12 +8789,12 @@
       <c r="F180" s="101" t="s">
         <v>387</v>
       </c>
-      <c r="G180" s="200" t="s">
+      <c r="G180" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H180" s="200"/>
-    </row>
-    <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H180" s="204"/>
+    </row>
+    <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="36"/>
       <c r="B181" s="102">
         <v>1</v>
@@ -8812,12 +8811,12 @@
       <c r="F181" s="102">
         <v>5</v>
       </c>
-      <c r="G181" s="201">
+      <c r="G181" s="246">
         <v>6</v>
       </c>
-      <c r="H181" s="201"/>
-    </row>
-    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="H181" s="246"/>
+    </row>
+    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="36"/>
       <c r="B182" s="149" t="s">
         <v>349</v>
@@ -8826,10 +8825,10 @@
       <c r="D182" s="149"/>
       <c r="E182" s="149"/>
       <c r="F182" s="149"/>
-      <c r="G182" s="203"/>
-      <c r="H182" s="203"/>
-    </row>
-    <row r="183" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="G182" s="247"/>
+      <c r="H182" s="247"/>
+    </row>
+    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="36"/>
       <c r="B183" s="150" t="s">
         <v>177</v>
@@ -8838,10 +8837,10 @@
       <c r="D183" s="150"/>
       <c r="E183" s="150"/>
       <c r="F183" s="150"/>
-      <c r="G183" s="202"/>
-      <c r="H183" s="202"/>
-    </row>
-    <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="G183" s="203"/>
+      <c r="H183" s="203"/>
+    </row>
+    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="36"/>
       <c r="B184" s="40" t="s">
         <v>214</v>
@@ -8859,13 +8858,13 @@
       <c r="F184" s="98">
         <v>0.4</v>
       </c>
-      <c r="G184" s="202">
+      <c r="G184" s="203">
         <f t="shared" ref="G184:G188" si="7">E184*F184</f>
         <v>4223.88</v>
       </c>
-      <c r="H184" s="202"/>
-    </row>
-    <row r="185" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="H184" s="203"/>
+    </row>
+    <row r="185" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A185" s="36"/>
       <c r="B185" s="51" t="s">
         <v>216</v>
@@ -8883,13 +8882,13 @@
       <c r="F185" s="98">
         <v>0.4</v>
       </c>
-      <c r="G185" s="202">
+      <c r="G185" s="203">
         <f t="shared" si="7"/>
         <v>4054.9248000000002</v>
       </c>
-      <c r="H185" s="202"/>
-    </row>
-    <row r="186" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H185" s="203"/>
+    </row>
+    <row r="186" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A186" s="36"/>
       <c r="B186" s="51" t="s">
         <v>215</v>
@@ -8907,13 +8906,13 @@
       <c r="F186" s="32">
         <v>0.3</v>
       </c>
-      <c r="G186" s="202">
+      <c r="G186" s="203">
         <f t="shared" si="7"/>
         <v>5799.1525799999999</v>
       </c>
-      <c r="H186" s="202"/>
-    </row>
-    <row r="187" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H186" s="203"/>
+    </row>
+    <row r="187" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="36"/>
       <c r="B187" s="57" t="s">
         <v>352</v>
@@ -8931,16 +8930,16 @@
       <c r="F187" s="32">
         <v>0.3</v>
       </c>
-      <c r="G187" s="204">
+      <c r="G187" s="236">
         <f t="shared" si="7"/>
         <v>17397.6924</v>
       </c>
-      <c r="H187" s="204"/>
-    </row>
-    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H187" s="236"/>
+    </row>
+    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A188" s="36"/>
       <c r="B188" s="60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C188" s="61" t="s">
         <v>178</v>
@@ -8955,13 +8954,13 @@
       <c r="F188" s="32">
         <v>0.3</v>
       </c>
-      <c r="G188" s="202">
+      <c r="G188" s="203">
         <f t="shared" si="7"/>
         <v>5799.1525799999999</v>
       </c>
-      <c r="H188" s="202"/>
-    </row>
-    <row r="189" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H188" s="203"/>
+    </row>
+    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="36"/>
       <c r="B189" s="44"/>
       <c r="C189" s="45"/>
@@ -8971,7 +8970,7 @@
       <c r="G189" s="45"/>
       <c r="H189" s="45"/>
     </row>
-    <row r="190" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="36"/>
       <c r="B190" s="148" t="s">
         <v>179</v>
@@ -8983,7 +8982,7 @@
       <c r="G190" s="148"/>
       <c r="H190" s="148"/>
     </row>
-    <row r="191" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="36"/>
       <c r="B191" s="40" t="s">
         <v>214</v>
@@ -9001,13 +9000,13 @@
       <c r="F191" s="184">
         <v>0.4</v>
       </c>
-      <c r="G191" s="202">
+      <c r="G191" s="203">
         <f t="shared" ref="G191:G195" si="8">E191*F191</f>
         <v>2959.8447999999999</v>
       </c>
-      <c r="H191" s="202"/>
-    </row>
-    <row r="192" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H191" s="203"/>
+    </row>
+    <row r="192" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="36"/>
       <c r="B192" s="51" t="s">
         <v>218</v>
@@ -9025,13 +9024,13 @@
       <c r="F192" s="184">
         <v>0.4</v>
       </c>
-      <c r="G192" s="202">
+      <c r="G192" s="203">
         <f t="shared" si="8"/>
         <v>2568.7447999999999</v>
       </c>
-      <c r="H192" s="202"/>
-    </row>
-    <row r="193" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H192" s="203"/>
+    </row>
+    <row r="193" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A193" s="36"/>
       <c r="B193" s="51" t="s">
         <v>219</v>
@@ -9049,13 +9048,13 @@
       <c r="F193" s="32">
         <v>0.3</v>
       </c>
-      <c r="G193" s="202">
+      <c r="G193" s="203">
         <f t="shared" si="8"/>
         <v>3221.8818000000006</v>
       </c>
-      <c r="H193" s="202"/>
-    </row>
-    <row r="194" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H193" s="203"/>
+    </row>
+    <row r="194" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="36"/>
       <c r="B194" s="40" t="s">
         <v>352</v>
@@ -9073,13 +9072,13 @@
       <c r="F194" s="32">
         <v>0.3</v>
       </c>
-      <c r="G194" s="202">
+      <c r="G194" s="203">
         <f t="shared" si="8"/>
         <v>9665.6453999999994</v>
       </c>
-      <c r="H194" s="202"/>
-    </row>
-    <row r="195" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H194" s="203"/>
+    </row>
+    <row r="195" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A195" s="36"/>
       <c r="B195" s="40" t="s">
         <v>220</v>
@@ -9097,13 +9096,13 @@
       <c r="F195" s="32">
         <v>0.3</v>
       </c>
-      <c r="G195" s="202">
+      <c r="G195" s="203">
         <f t="shared" si="8"/>
         <v>3221.8818000000006</v>
       </c>
-      <c r="H195" s="202"/>
-    </row>
-    <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="H195" s="203"/>
+    </row>
+    <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="36"/>
       <c r="B196" s="62"/>
       <c r="C196" s="103"/>
@@ -9113,7 +9112,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="117"/>
     </row>
-    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="36"/>
       <c r="B197" s="146" t="s">
         <v>350</v>
@@ -9125,7 +9124,7 @@
       <c r="G197" s="146"/>
       <c r="H197" s="146"/>
     </row>
-    <row r="198" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="36"/>
       <c r="B198" s="147" t="s">
         <v>177</v>
@@ -9137,7 +9136,7 @@
       <c r="G198" s="147"/>
       <c r="H198" s="147"/>
     </row>
-    <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="36"/>
       <c r="B199" s="63" t="s">
         <v>214</v>
@@ -9155,13 +9154,13 @@
       <c r="F199" s="184">
         <v>0.4</v>
       </c>
-      <c r="G199" s="202">
+      <c r="G199" s="203">
         <f t="shared" ref="G199:G203" si="9">E199*F199</f>
         <v>4223.88</v>
       </c>
-      <c r="H199" s="202"/>
-    </row>
-    <row r="200" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="H199" s="203"/>
+    </row>
+    <row r="200" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A200" s="36"/>
       <c r="B200" s="66" t="s">
         <v>216</v>
@@ -9179,13 +9178,13 @@
       <c r="F200" s="184">
         <v>0.4</v>
       </c>
-      <c r="G200" s="202">
+      <c r="G200" s="203">
         <f t="shared" si="9"/>
         <v>4054.9248000000002</v>
       </c>
-      <c r="H200" s="202"/>
-    </row>
-    <row r="201" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H200" s="203"/>
+    </row>
+    <row r="201" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A201" s="36"/>
       <c r="B201" s="66" t="s">
         <v>215</v>
@@ -9203,13 +9202,13 @@
       <c r="F201" s="32">
         <v>0.3</v>
       </c>
-      <c r="G201" s="202">
+      <c r="G201" s="203">
         <f t="shared" si="9"/>
         <v>5799.1525799999999</v>
       </c>
-      <c r="H201" s="202"/>
-    </row>
-    <row r="202" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H201" s="203"/>
+    </row>
+    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="36"/>
       <c r="B202" s="67" t="s">
         <v>353</v>
@@ -9227,16 +9226,16 @@
       <c r="F202" s="32">
         <v>0.3</v>
       </c>
-      <c r="G202" s="202">
+      <c r="G202" s="203">
         <f t="shared" si="9"/>
         <v>17397.6924</v>
       </c>
-      <c r="H202" s="202"/>
-    </row>
-    <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H202" s="203"/>
+    </row>
+    <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A203" s="36"/>
       <c r="B203" s="69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C203" s="70" t="s">
         <v>178</v>
@@ -9251,16 +9250,16 @@
       <c r="F203" s="32">
         <v>0.3</v>
       </c>
-      <c r="G203" s="202">
+      <c r="G203" s="203">
         <f t="shared" si="9"/>
         <v>5799.1525799999999</v>
       </c>
-      <c r="H203" s="202"/>
-    </row>
-    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H203" s="203"/>
+    </row>
+    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A204" s="36"/>
       <c r="B204" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C204" s="72" t="s">
         <v>288</v>
@@ -9275,13 +9274,13 @@
       <c r="F204" s="99">
         <v>0.45</v>
       </c>
-      <c r="G204" s="202">
+      <c r="G204" s="203">
         <f>E204*F204</f>
         <v>26096.5386</v>
       </c>
-      <c r="H204" s="202"/>
-    </row>
-    <row r="205" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H204" s="203"/>
+    </row>
+    <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="36"/>
       <c r="B205" s="44"/>
       <c r="C205" s="45"/>
@@ -9291,7 +9290,7 @@
       <c r="G205" s="45"/>
       <c r="H205" s="45"/>
     </row>
-    <row r="206" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="36"/>
       <c r="B206" s="145" t="s">
         <v>179</v>
@@ -9303,7 +9302,7 @@
       <c r="G206" s="145"/>
       <c r="H206" s="145"/>
     </row>
-    <row r="207" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="36"/>
       <c r="B207" s="63" t="s">
         <v>214</v>
@@ -9321,13 +9320,13 @@
       <c r="F207" s="184">
         <v>0.4</v>
       </c>
-      <c r="G207" s="202">
+      <c r="G207" s="203">
         <f t="shared" ref="G207:G212" si="10">E207*F207</f>
         <v>2959.8447999999999</v>
       </c>
-      <c r="H207" s="202"/>
-    </row>
-    <row r="208" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H207" s="203"/>
+    </row>
+    <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A208" s="36"/>
       <c r="B208" s="66" t="s">
         <v>218</v>
@@ -9345,13 +9344,13 @@
       <c r="F208" s="184">
         <v>0.4</v>
       </c>
-      <c r="G208" s="202">
+      <c r="G208" s="203">
         <f t="shared" si="10"/>
         <v>2568.7447999999999</v>
       </c>
-      <c r="H208" s="202"/>
-    </row>
-    <row r="209" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H208" s="203"/>
+    </row>
+    <row r="209" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A209" s="36"/>
       <c r="B209" s="66" t="s">
         <v>219</v>
@@ -9369,13 +9368,13 @@
       <c r="F209" s="32">
         <v>0.3</v>
       </c>
-      <c r="G209" s="202">
+      <c r="G209" s="203">
         <f t="shared" si="10"/>
         <v>3221.8818000000006</v>
       </c>
-      <c r="H209" s="202"/>
-    </row>
-    <row r="210" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H209" s="203"/>
+    </row>
+    <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="36"/>
       <c r="B210" s="63" t="s">
         <v>217</v>
@@ -9393,13 +9392,13 @@
       <c r="F210" s="32">
         <v>0.3</v>
       </c>
-      <c r="G210" s="202">
+      <c r="G210" s="203">
         <f t="shared" si="10"/>
         <v>9665.6453999999994</v>
       </c>
-      <c r="H210" s="202"/>
-    </row>
-    <row r="211" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H210" s="203"/>
+    </row>
+    <row r="211" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A211" s="36"/>
       <c r="B211" s="63" t="s">
         <v>354</v>
@@ -9417,16 +9416,16 @@
       <c r="F211" s="32">
         <v>0.3</v>
       </c>
-      <c r="G211" s="202">
+      <c r="G211" s="203">
         <f t="shared" si="10"/>
         <v>3221.8818000000006</v>
       </c>
-      <c r="H211" s="202"/>
-    </row>
-    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="H211" s="203"/>
+    </row>
+    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A212" s="36"/>
       <c r="B212" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C212" s="61" t="s">
         <v>288</v>
@@ -9441,26 +9440,26 @@
       <c r="F212" s="99">
         <v>0.45</v>
       </c>
-      <c r="G212" s="202">
+      <c r="G212" s="203">
         <f t="shared" si="10"/>
         <v>26096.5386</v>
       </c>
-      <c r="H212" s="202"/>
-    </row>
-    <row r="213" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H212" s="203"/>
+    </row>
+    <row r="213" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="36"/>
       <c r="B213" s="62"/>
       <c r="C213" s="103"/>
       <c r="D213" s="103"/>
       <c r="E213" s="103"/>
       <c r="F213" s="103"/>
-      <c r="G213" s="260"/>
-      <c r="H213" s="260"/>
-    </row>
-    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="G213" s="231"/>
+      <c r="H213" s="231"/>
+    </row>
+    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="36"/>
       <c r="B214" s="143" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C214" s="143"/>
       <c r="D214" s="143"/>
@@ -9469,7 +9468,7 @@
       <c r="G214" s="143"/>
       <c r="H214" s="143"/>
     </row>
-    <row r="215" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="36"/>
       <c r="B215" s="75" t="s">
         <v>214</v>
@@ -9487,13 +9486,13 @@
       <c r="F215" s="184">
         <v>0.4</v>
       </c>
-      <c r="G215" s="198">
+      <c r="G215" s="272">
         <f t="shared" ref="G215:G219" si="11">E215*F215</f>
         <v>4223.88</v>
       </c>
-      <c r="H215" s="199"/>
-    </row>
-    <row r="216" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H215" s="273"/>
+    </row>
+    <row r="216" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A216" s="36"/>
       <c r="B216" s="66" t="s">
         <v>215</v>
@@ -9511,13 +9510,13 @@
       <c r="F216" s="32">
         <v>0.3</v>
       </c>
-      <c r="G216" s="198">
+      <c r="G216" s="272">
         <f t="shared" si="11"/>
         <v>5799.1525799999999</v>
       </c>
-      <c r="H216" s="199"/>
-    </row>
-    <row r="217" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H216" s="273"/>
+    </row>
+    <row r="217" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A217" s="36"/>
       <c r="B217" s="63" t="s">
         <v>284</v>
@@ -9535,13 +9534,13 @@
       <c r="F217" s="32">
         <v>0.3</v>
       </c>
-      <c r="G217" s="198">
+      <c r="G217" s="272">
         <f t="shared" si="11"/>
         <v>11598.539819999998</v>
       </c>
-      <c r="H217" s="199"/>
-    </row>
-    <row r="218" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H217" s="273"/>
+    </row>
+    <row r="218" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="36"/>
       <c r="B218" s="77" t="s">
         <v>286</v>
@@ -9559,13 +9558,13 @@
       <c r="F218" s="184">
         <v>0.4</v>
       </c>
-      <c r="G218" s="198">
+      <c r="G218" s="272">
         <f t="shared" si="11"/>
         <v>7039.8</v>
       </c>
-      <c r="H218" s="199"/>
-    </row>
-    <row r="219" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H218" s="273"/>
+    </row>
+    <row r="219" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A219" s="36"/>
       <c r="B219" s="77" t="s">
         <v>310</v>
@@ -9583,13 +9582,13 @@
       <c r="F219" s="184">
         <v>0.4</v>
       </c>
-      <c r="G219" s="198">
+      <c r="G219" s="272">
         <f t="shared" si="11"/>
         <v>6232.5695999999998</v>
       </c>
-      <c r="H219" s="199"/>
-    </row>
-    <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="H219" s="273"/>
+    </row>
+    <row r="220" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="36"/>
       <c r="B220" s="105"/>
       <c r="C220" s="105"/>
@@ -9599,7 +9598,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="117"/>
     </row>
-    <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A221" s="36"/>
       <c r="B221" s="144" t="s">
         <v>294</v>
@@ -9611,13 +9610,13 @@
       <c r="G221" s="144"/>
       <c r="H221" s="144"/>
     </row>
-    <row r="222" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A222" s="36"/>
       <c r="B222" s="123" t="s">
         <v>1</v>
       </c>
       <c r="C222" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D222" s="23" t="s">
         <v>380</v>
@@ -9626,13 +9625,13 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на IV кв 2025 г.: (78,22) руб.</v>
       </c>
-      <c r="F222" s="230" t="s">
-        <v>426</v>
-      </c>
-      <c r="G222" s="230"/>
-      <c r="H222" s="230"/>
-    </row>
-    <row r="223" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="F222" s="228" t="s">
+        <v>425</v>
+      </c>
+      <c r="G222" s="228"/>
+      <c r="H222" s="228"/>
+    </row>
+    <row r="223" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="36"/>
       <c r="B223" s="102">
         <v>1</v>
@@ -9646,13 +9645,13 @@
       <c r="E223" s="102">
         <v>4</v>
       </c>
-      <c r="F223" s="239">
+      <c r="F223" s="269">
         <v>5</v>
       </c>
-      <c r="G223" s="240"/>
-      <c r="H223" s="241"/>
-    </row>
-    <row r="224" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="G223" s="270"/>
+      <c r="H223" s="271"/>
+    </row>
+    <row r="224" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="36"/>
       <c r="B224" s="79" t="s">
         <v>296</v>
@@ -9667,14 +9666,14 @@
         <f>D224*Лист2!$B$3</f>
         <v>13086.206</v>
       </c>
-      <c r="F224" s="255">
+      <c r="F224" s="219">
         <f>E224*3.5</f>
         <v>45801.720999999998</v>
       </c>
-      <c r="G224" s="255"/>
-      <c r="H224" s="255"/>
-    </row>
-    <row r="225" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="G224" s="219"/>
+      <c r="H224" s="219"/>
+    </row>
+    <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="36"/>
       <c r="B225" s="30"/>
       <c r="C225" s="103"/>
@@ -9684,7 +9683,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="117"/>
     </row>
-    <row r="226" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A226" s="36"/>
       <c r="B226" s="143" t="s">
         <v>393</v>
@@ -9696,13 +9695,13 @@
       <c r="G226" s="143"/>
       <c r="H226" s="143"/>
     </row>
-    <row r="227" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A227" s="36"/>
       <c r="B227" s="124" t="s">
         <v>1</v>
       </c>
       <c r="C227" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D227" s="23" t="s">
         <v>380</v>
@@ -9714,12 +9713,12 @@
       <c r="F227" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="G227" s="200" t="s">
+      <c r="G227" s="204" t="s">
         <v>388</v>
       </c>
-      <c r="H227" s="200"/>
-    </row>
-    <row r="228" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H227" s="204"/>
+    </row>
+    <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="36"/>
       <c r="B228" s="102">
         <v>1</v>
@@ -9736,12 +9735,12 @@
       <c r="F228" s="102">
         <v>5</v>
       </c>
-      <c r="G228" s="201">
+      <c r="G228" s="246">
         <v>6</v>
       </c>
-      <c r="H228" s="201"/>
-    </row>
-    <row r="229" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="H228" s="246"/>
+    </row>
+    <row r="229" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A229" s="36"/>
       <c r="B229" s="80" t="s">
         <v>358</v>
@@ -9759,13 +9758,13 @@
       <c r="F229" s="184">
         <v>0.4</v>
       </c>
-      <c r="G229" s="202">
+      <c r="G229" s="203">
         <f t="shared" ref="G229:G232" si="12">E229*F229</f>
         <v>7039.8</v>
       </c>
-      <c r="H229" s="202"/>
-    </row>
-    <row r="230" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H229" s="203"/>
+    </row>
+    <row r="230" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A230" s="36"/>
       <c r="B230" s="80" t="s">
         <v>355</v>
@@ -9783,13 +9782,13 @@
       <c r="F230" s="184">
         <v>0.4</v>
       </c>
-      <c r="G230" s="202">
+      <c r="G230" s="203">
         <f t="shared" si="12"/>
         <v>6232.5695999999998</v>
       </c>
-      <c r="H230" s="202"/>
-    </row>
-    <row r="231" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H230" s="203"/>
+    </row>
+    <row r="231" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="36"/>
       <c r="B231" s="80" t="s">
         <v>356</v>
@@ -9807,13 +9806,13 @@
       <c r="F231" s="32">
         <v>0.25</v>
       </c>
-      <c r="G231" s="202">
+      <c r="G231" s="203">
         <f t="shared" si="12"/>
         <v>14498.076999999999</v>
       </c>
-      <c r="H231" s="202"/>
-    </row>
-    <row r="232" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H231" s="203"/>
+    </row>
+    <row r="232" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="36"/>
       <c r="B232" s="80" t="s">
         <v>357</v>
@@ -9831,13 +9830,13 @@
       <c r="F232" s="32">
         <v>0.25</v>
       </c>
-      <c r="G232" s="202">
+      <c r="G232" s="203">
         <f t="shared" si="12"/>
         <v>3279.3734999999997</v>
       </c>
-      <c r="H232" s="202"/>
-    </row>
-    <row r="233" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="H232" s="203"/>
+    </row>
+    <row r="233" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="36"/>
       <c r="B233" s="30"/>
       <c r="C233" s="103"/>
@@ -9847,7 +9846,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="117"/>
     </row>
-    <row r="234" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="36"/>
       <c r="B234" s="30"/>
       <c r="C234" s="103"/>
@@ -9857,10 +9856,10 @@
       <c r="G234" s="1"/>
       <c r="H234" s="117"/>
     </row>
-    <row r="235" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="36"/>
       <c r="B235" s="142" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C235" s="142"/>
       <c r="D235" s="142"/>
@@ -9869,21 +9868,21 @@
       <c r="G235" s="142"/>
       <c r="H235" s="142"/>
     </row>
-    <row r="236" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="36"/>
       <c r="B236" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C236" s="256" t="s">
+      <c r="C236" s="243" t="s">
         <v>373</v>
       </c>
-      <c r="D236" s="256"/>
-      <c r="E236" s="256"/>
-      <c r="F236" s="256"/>
-      <c r="G236" s="256"/>
-      <c r="H236" s="256"/>
-    </row>
-    <row r="237" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="D236" s="243"/>
+      <c r="E236" s="243"/>
+      <c r="F236" s="243"/>
+      <c r="G236" s="243"/>
+      <c r="H236" s="243"/>
+    </row>
+    <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="36"/>
       <c r="B237" s="105"/>
       <c r="C237" s="105"/>
@@ -9893,7 +9892,7 @@
       <c r="G237" s="105"/>
       <c r="H237" s="117"/>
     </row>
-    <row r="238" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="36"/>
       <c r="B238" s="105"/>
       <c r="C238" s="105"/>
@@ -9903,10 +9902,10 @@
       <c r="G238" s="105"/>
       <c r="H238" s="117"/>
     </row>
-    <row r="239" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A239" s="36"/>
       <c r="B239" s="141" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C239" s="141"/>
       <c r="D239" s="141"/>
@@ -9915,13 +9914,13 @@
       <c r="G239" s="141"/>
       <c r="H239" s="141"/>
     </row>
-    <row r="240" spans="1:8" ht="87.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A240" s="36"/>
       <c r="B240" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D240" s="83" t="s">
         <v>380</v>
@@ -9933,12 +9932,12 @@
       <c r="F240" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G240" s="230" t="s">
+      <c r="G240" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="H240" s="230"/>
-    </row>
-    <row r="241" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H240" s="228"/>
+    </row>
+    <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="36"/>
       <c r="B241" s="8">
         <v>1</v>
@@ -9955,12 +9954,12 @@
       <c r="F241" s="106">
         <v>5</v>
       </c>
-      <c r="G241" s="231">
+      <c r="G241" s="253">
         <v>6</v>
       </c>
-      <c r="H241" s="231"/>
-    </row>
-    <row r="242" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H241" s="253"/>
+    </row>
+    <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A242" s="36"/>
       <c r="B242" s="85" t="s">
         <v>96</v>
@@ -9978,13 +9977,13 @@
       <c r="F242" s="50">
         <v>0.45</v>
       </c>
-      <c r="G242" s="229">
+      <c r="G242" s="202">
         <f t="shared" ref="G242:G252" si="13">E242*F242</f>
         <v>4431.5541000000003</v>
       </c>
-      <c r="H242" s="229"/>
-    </row>
-    <row r="243" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H242" s="202"/>
+    </row>
+    <row r="243" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A243" s="36"/>
       <c r="B243" s="87" t="s">
         <v>375</v>
@@ -10002,13 +10001,13 @@
       <c r="F243" s="50">
         <v>0.45</v>
       </c>
-      <c r="G243" s="229">
+      <c r="G243" s="202">
         <f t="shared" si="13"/>
         <v>3674.7756000000004</v>
       </c>
-      <c r="H243" s="229"/>
-    </row>
-    <row r="244" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H243" s="202"/>
+    </row>
+    <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="36"/>
       <c r="B244" s="85" t="s">
         <v>98</v>
@@ -10026,13 +10025,13 @@
       <c r="F244" s="50">
         <v>0.45</v>
       </c>
-      <c r="G244" s="229">
+      <c r="G244" s="202">
         <f t="shared" si="13"/>
         <v>133.75620000000001</v>
       </c>
-      <c r="H244" s="229"/>
-    </row>
-    <row r="245" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="H244" s="202"/>
+    </row>
+    <row r="245" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A245" s="113"/>
       <c r="B245" s="85" t="s">
         <v>100</v>
@@ -10050,13 +10049,13 @@
       <c r="F245" s="50">
         <v>0.45</v>
       </c>
-      <c r="G245" s="229">
+      <c r="G245" s="202">
         <f t="shared" si="13"/>
         <v>2052.1016999999997</v>
       </c>
-      <c r="H245" s="229"/>
-    </row>
-    <row r="246" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="H245" s="202"/>
+    </row>
+    <row r="246" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="122"/>
       <c r="B246" s="85" t="s">
         <v>102</v>
@@ -10074,13 +10073,13 @@
       <c r="F246" s="50">
         <v>0.45</v>
       </c>
-      <c r="G246" s="229">
+      <c r="G246" s="202">
         <f t="shared" si="13"/>
         <v>756.77850000000001</v>
       </c>
-      <c r="H246" s="229"/>
-    </row>
-    <row r="247" spans="1:8" ht="25" x14ac:dyDescent="0.3">
+      <c r="H246" s="202"/>
+    </row>
+    <row r="247" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A247" s="89"/>
       <c r="B247" s="85" t="s">
         <v>104</v>
@@ -10098,13 +10097,13 @@
       <c r="F247" s="50">
         <v>0.45</v>
       </c>
-      <c r="G247" s="229">
+      <c r="G247" s="202">
         <f t="shared" si="13"/>
         <v>281.59199999999998</v>
       </c>
-      <c r="H247" s="229"/>
-    </row>
-    <row r="248" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H247" s="202"/>
+    </row>
+    <row r="248" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A248" s="43"/>
       <c r="B248" s="85" t="s">
         <v>105</v>
@@ -10122,13 +10121,13 @@
       <c r="F248" s="50">
         <v>0.45</v>
       </c>
-      <c r="G248" s="229">
+      <c r="G248" s="202">
         <f t="shared" si="13"/>
         <v>721.57950000000005</v>
       </c>
-      <c r="H248" s="229"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="202"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="43"/>
       <c r="B249" s="85" t="s">
         <v>107</v>
@@ -10146,13 +10145,13 @@
       <c r="F249" s="50">
         <v>0.45</v>
       </c>
-      <c r="G249" s="229">
+      <c r="G249" s="202">
         <f t="shared" si="13"/>
         <v>894.05459999999994</v>
       </c>
-      <c r="H249" s="229"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="202"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="43"/>
       <c r="B250" s="85" t="s">
         <v>109</v>
@@ -10170,13 +10169,13 @@
       <c r="F250" s="50">
         <v>0.45</v>
       </c>
-      <c r="G250" s="229">
+      <c r="G250" s="202">
         <f t="shared" si="13"/>
         <v>640.62179999999989</v>
       </c>
-      <c r="H250" s="229"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="202"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="43"/>
       <c r="B251" s="85" t="s">
         <v>272</v>
@@ -10194,13 +10193,13 @@
       <c r="F251" s="50">
         <v>0.45</v>
       </c>
-      <c r="G251" s="229">
+      <c r="G251" s="202">
         <f t="shared" si="13"/>
         <v>302.71140000000003</v>
       </c>
-      <c r="H251" s="229"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H251" s="202"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="43"/>
       <c r="B252" s="67" t="s">
         <v>207</v>
@@ -10218,35 +10217,35 @@
       <c r="F252" s="50">
         <v>0.45</v>
       </c>
-      <c r="G252" s="229">
+      <c r="G252" s="202">
         <f t="shared" si="13"/>
         <v>383.66910000000001</v>
       </c>
-      <c r="H252" s="229"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H252" s="202"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="43"/>
-      <c r="B253" s="232" t="s">
-        <v>413</v>
-      </c>
-      <c r="C253" s="233"/>
-      <c r="D253" s="233"/>
-      <c r="E253" s="233"/>
-      <c r="F253" s="233"/>
-      <c r="G253" s="233"/>
-      <c r="H253" s="234"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="250" t="s">
+        <v>412</v>
+      </c>
+      <c r="C253" s="251"/>
+      <c r="D253" s="251"/>
+      <c r="E253" s="251"/>
+      <c r="F253" s="251"/>
+      <c r="G253" s="251"/>
+      <c r="H253" s="252"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="43"/>
-      <c r="B254" s="235"/>
-      <c r="C254" s="236"/>
-      <c r="D254" s="236"/>
-      <c r="E254" s="236"/>
-      <c r="F254" s="236"/>
-      <c r="G254" s="236"/>
-      <c r="H254" s="237"/>
-    </row>
-    <row r="255" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="B254" s="240"/>
+      <c r="C254" s="241"/>
+      <c r="D254" s="241"/>
+      <c r="E254" s="241"/>
+      <c r="F254" s="241"/>
+      <c r="G254" s="241"/>
+      <c r="H254" s="242"/>
+    </row>
+    <row r="255" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="43"/>
       <c r="B255" s="90"/>
       <c r="C255" s="43"/>
@@ -10256,7 +10255,7 @@
       <c r="G255" s="43"/>
       <c r="H255" s="117"/>
     </row>
-    <row r="256" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="43"/>
       <c r="B256" s="90"/>
       <c r="C256" s="43"/>
@@ -10266,10 +10265,10 @@
       <c r="G256" s="43"/>
       <c r="H256" s="117"/>
     </row>
-    <row r="257" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A257" s="43"/>
       <c r="B257" s="140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C257" s="141"/>
       <c r="D257" s="141"/>
@@ -10278,26 +10277,26 @@
       <c r="G257" s="141"/>
       <c r="H257" s="141"/>
     </row>
-    <row r="258" spans="1:8" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A258" s="43"/>
       <c r="B258" s="123" t="s">
         <v>1</v>
       </c>
       <c r="C258" s="101" t="s">
-        <v>397</v>
-      </c>
-      <c r="D258" s="230" t="s">
+        <v>396</v>
+      </c>
+      <c r="D258" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="E258" s="230"/>
-      <c r="F258" s="230" t="str">
+      <c r="E258" s="228"/>
+      <c r="F258" s="228" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на IV кв 2025 г.: (78,22) руб.</v>
       </c>
-      <c r="G258" s="230"/>
-      <c r="H258" s="230"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G258" s="228"/>
+      <c r="H258" s="228"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="43"/>
       <c r="B259" s="8">
         <v>1</v>
@@ -10305,17 +10304,17 @@
       <c r="C259" s="8">
         <v>2</v>
       </c>
-      <c r="D259" s="246">
+      <c r="D259" s="232">
         <v>3</v>
       </c>
-      <c r="E259" s="248"/>
-      <c r="F259" s="246">
+      <c r="E259" s="233"/>
+      <c r="F259" s="232">
         <v>4</v>
       </c>
-      <c r="G259" s="247"/>
-      <c r="H259" s="248"/>
-    </row>
-    <row r="260" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G259" s="235"/>
+      <c r="H259" s="233"/>
+    </row>
+    <row r="260" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="90"/>
       <c r="B260" s="79" t="s">
         <v>111</v>
@@ -10323,18 +10322,18 @@
       <c r="C260" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D260" s="238">
+      <c r="D260" s="230">
         <v>7</v>
       </c>
-      <c r="E260" s="238"/>
-      <c r="F260" s="249">
+      <c r="E260" s="230"/>
+      <c r="F260" s="225">
         <f>D260*Лист2!$B$3</f>
         <v>547.54</v>
       </c>
-      <c r="G260" s="250"/>
-      <c r="H260" s="251"/>
-    </row>
-    <row r="261" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G260" s="226"/>
+      <c r="H260" s="227"/>
+    </row>
+    <row r="261" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A261" s="90"/>
       <c r="B261" s="79" t="s">
         <v>113</v>
@@ -10342,18 +10341,18 @@
       <c r="C261" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D261" s="238">
+      <c r="D261" s="230">
         <v>4</v>
       </c>
-      <c r="E261" s="238"/>
-      <c r="F261" s="249">
+      <c r="E261" s="230"/>
+      <c r="F261" s="225">
         <f>D261*Лист2!$B$3</f>
         <v>312.88</v>
       </c>
-      <c r="G261" s="250"/>
-      <c r="H261" s="251"/>
-    </row>
-    <row r="262" spans="1:8" ht="14" x14ac:dyDescent="0.25">
+      <c r="G261" s="226"/>
+      <c r="H261" s="227"/>
+    </row>
+    <row r="262" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="90"/>
       <c r="B262" s="79" t="s">
         <v>114</v>
@@ -10361,18 +10360,18 @@
       <c r="C262" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D262" s="238">
+      <c r="D262" s="230">
         <v>20.2</v>
       </c>
-      <c r="E262" s="238"/>
-      <c r="F262" s="249">
+      <c r="E262" s="230"/>
+      <c r="F262" s="225">
         <f>D262*Лист2!$B$3</f>
         <v>1580.0439999999999</v>
       </c>
-      <c r="G262" s="250"/>
-      <c r="H262" s="251"/>
-    </row>
-    <row r="263" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="G262" s="226"/>
+      <c r="H262" s="227"/>
+    </row>
+    <row r="263" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="28"/>
       <c r="B263" s="79" t="s">
         <v>115</v>
@@ -10380,18 +10379,18 @@
       <c r="C263" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D263" s="238">
+      <c r="D263" s="230">
         <v>7.2</v>
       </c>
-      <c r="E263" s="238"/>
-      <c r="F263" s="249">
+      <c r="E263" s="230"/>
+      <c r="F263" s="225">
         <f>D263*Лист2!$B$3</f>
         <v>563.18399999999997</v>
       </c>
-      <c r="G263" s="250"/>
-      <c r="H263" s="251"/>
-    </row>
-    <row r="264" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G263" s="226"/>
+      <c r="H263" s="227"/>
+    </row>
+    <row r="264" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A264" s="122"/>
       <c r="B264" s="79" t="s">
         <v>116</v>
@@ -10399,18 +10398,18 @@
       <c r="C264" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D264" s="238">
+      <c r="D264" s="230">
         <v>19.600000000000001</v>
       </c>
-      <c r="E264" s="238"/>
-      <c r="F264" s="249">
+      <c r="E264" s="230"/>
+      <c r="F264" s="225">
         <f>D264*Лист2!$B$3</f>
         <v>1533.1120000000001</v>
       </c>
-      <c r="G264" s="250"/>
-      <c r="H264" s="251"/>
-    </row>
-    <row r="265" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G264" s="226"/>
+      <c r="H264" s="227"/>
+    </row>
+    <row r="265" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A265" s="30"/>
       <c r="B265" s="79" t="s">
         <v>117</v>
@@ -10418,18 +10417,18 @@
       <c r="C265" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D265" s="238">
+      <c r="D265" s="230">
         <v>40</v>
       </c>
-      <c r="E265" s="238"/>
-      <c r="F265" s="249">
+      <c r="E265" s="230"/>
+      <c r="F265" s="225">
         <f>D265*Лист2!$B$3</f>
         <v>3128.8</v>
       </c>
-      <c r="G265" s="250"/>
-      <c r="H265" s="251"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G265" s="226"/>
+      <c r="H265" s="227"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="30"/>
       <c r="B266" s="79" t="s">
         <v>118</v>
@@ -10437,18 +10436,18 @@
       <c r="C266" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D266" s="238">
+      <c r="D266" s="230">
         <v>8</v>
       </c>
-      <c r="E266" s="238"/>
-      <c r="F266" s="249">
+      <c r="E266" s="230"/>
+      <c r="F266" s="225">
         <f>D266*Лист2!$B$3</f>
         <v>625.76</v>
       </c>
-      <c r="G266" s="250"/>
-      <c r="H266" s="251"/>
-    </row>
-    <row r="267" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G266" s="226"/>
+      <c r="H266" s="227"/>
+    </row>
+    <row r="267" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A267" s="30"/>
       <c r="B267" s="79" t="s">
         <v>119</v>
@@ -10456,18 +10455,18 @@
       <c r="C267" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D267" s="238">
+      <c r="D267" s="230">
         <v>101.9</v>
       </c>
-      <c r="E267" s="238"/>
-      <c r="F267" s="249">
+      <c r="E267" s="230"/>
+      <c r="F267" s="225">
         <f>D267*Лист2!$B$3</f>
         <v>7970.6180000000004</v>
       </c>
-      <c r="G267" s="250"/>
-      <c r="H267" s="251"/>
-    </row>
-    <row r="268" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G267" s="226"/>
+      <c r="H267" s="227"/>
+    </row>
+    <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A268" s="30"/>
       <c r="B268" s="79" t="s">
         <v>120</v>
@@ -10475,18 +10474,18 @@
       <c r="C268" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D268" s="238">
+      <c r="D268" s="230">
         <v>101.9</v>
       </c>
-      <c r="E268" s="238"/>
-      <c r="F268" s="249">
+      <c r="E268" s="230"/>
+      <c r="F268" s="225">
         <f>D268*Лист2!$B$3</f>
         <v>7970.6180000000004</v>
       </c>
-      <c r="G268" s="250"/>
-      <c r="H268" s="251"/>
-    </row>
-    <row r="269" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G268" s="226"/>
+      <c r="H268" s="227"/>
+    </row>
+    <row r="269" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A269" s="30"/>
       <c r="B269" s="79" t="s">
         <v>121</v>
@@ -10494,18 +10493,18 @@
       <c r="C269" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D269" s="238">
+      <c r="D269" s="230">
         <v>167.7</v>
       </c>
-      <c r="E269" s="238"/>
-      <c r="F269" s="249">
+      <c r="E269" s="230"/>
+      <c r="F269" s="225">
         <f>D269*Лист2!$B$3</f>
         <v>13117.493999999999</v>
       </c>
-      <c r="G269" s="250"/>
-      <c r="H269" s="251"/>
-    </row>
-    <row r="270" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="G269" s="226"/>
+      <c r="H269" s="227"/>
+    </row>
+    <row r="270" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="30"/>
       <c r="B270" s="79" t="s">
         <v>122</v>
@@ -10513,18 +10512,18 @@
       <c r="C270" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D270" s="238">
+      <c r="D270" s="230">
         <v>376.5</v>
       </c>
-      <c r="E270" s="238"/>
-      <c r="F270" s="249">
+      <c r="E270" s="230"/>
+      <c r="F270" s="225">
         <f>D270*Лист2!$B$3</f>
         <v>29449.829999999998</v>
       </c>
-      <c r="G270" s="250"/>
-      <c r="H270" s="251"/>
-    </row>
-    <row r="271" spans="1:8" ht="50" x14ac:dyDescent="0.25">
+      <c r="G270" s="226"/>
+      <c r="H270" s="227"/>
+    </row>
+    <row r="271" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A271" s="30"/>
       <c r="B271" s="79" t="s">
         <v>124</v>
@@ -10532,18 +10531,18 @@
       <c r="C271" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D271" s="238">
+      <c r="D271" s="230">
         <v>376.5</v>
       </c>
-      <c r="E271" s="238"/>
-      <c r="F271" s="249">
+      <c r="E271" s="230"/>
+      <c r="F271" s="225">
         <f>D271*Лист2!$B$3</f>
         <v>29449.829999999998</v>
       </c>
-      <c r="G271" s="250"/>
-      <c r="H271" s="251"/>
-    </row>
-    <row r="272" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G271" s="226"/>
+      <c r="H271" s="227"/>
+    </row>
+    <row r="272" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A272" s="30"/>
       <c r="B272" s="79" t="s">
         <v>125</v>
@@ -10551,18 +10550,18 @@
       <c r="C272" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D272" s="238">
+      <c r="D272" s="230">
         <v>741.4</v>
       </c>
-      <c r="E272" s="238"/>
-      <c r="F272" s="249">
+      <c r="E272" s="230"/>
+      <c r="F272" s="225">
         <f>D272*Лист2!$B$3</f>
         <v>57992.307999999997</v>
       </c>
-      <c r="G272" s="250"/>
-      <c r="H272" s="251"/>
-    </row>
-    <row r="273" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G272" s="226"/>
+      <c r="H272" s="227"/>
+    </row>
+    <row r="273" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A273" s="30"/>
       <c r="B273" s="79" t="s">
         <v>126</v>
@@ -10570,18 +10569,18 @@
       <c r="C273" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="D273" s="238">
+      <c r="D273" s="230">
         <v>411.9</v>
       </c>
-      <c r="E273" s="238"/>
-      <c r="F273" s="249">
+      <c r="E273" s="230"/>
+      <c r="F273" s="225">
         <f>D273*Лист2!$B$3</f>
         <v>32218.817999999999</v>
       </c>
-      <c r="G273" s="250"/>
-      <c r="H273" s="251"/>
-    </row>
-    <row r="274" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G273" s="226"/>
+      <c r="H273" s="227"/>
+    </row>
+    <row r="274" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A274" s="30"/>
       <c r="B274" s="79" t="s">
         <v>128</v>
@@ -10589,18 +10588,18 @@
       <c r="C274" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D274" s="238">
+      <c r="D274" s="230">
         <v>114.4</v>
       </c>
-      <c r="E274" s="238"/>
-      <c r="F274" s="249">
+      <c r="E274" s="230"/>
+      <c r="F274" s="225">
         <f>D274*Лист2!$B$3</f>
         <v>8948.3680000000004</v>
       </c>
-      <c r="G274" s="250"/>
-      <c r="H274" s="251"/>
-    </row>
-    <row r="275" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G274" s="226"/>
+      <c r="H274" s="227"/>
+    </row>
+    <row r="275" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A275" s="30"/>
       <c r="B275" s="79" t="s">
         <v>129</v>
@@ -10608,18 +10607,18 @@
       <c r="C275" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D275" s="238">
+      <c r="D275" s="230">
         <v>135</v>
       </c>
-      <c r="E275" s="238"/>
-      <c r="F275" s="249">
+      <c r="E275" s="230"/>
+      <c r="F275" s="225">
         <f>D275*Лист2!$B$3</f>
         <v>10559.7</v>
       </c>
-      <c r="G275" s="250"/>
-      <c r="H275" s="251"/>
-    </row>
-    <row r="276" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G275" s="226"/>
+      <c r="H275" s="227"/>
+    </row>
+    <row r="276" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A276" s="30"/>
       <c r="B276" s="79" t="s">
         <v>130</v>
@@ -10627,18 +10626,18 @@
       <c r="C276" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D276" s="238">
+      <c r="D276" s="230">
         <v>741.4</v>
       </c>
-      <c r="E276" s="238"/>
-      <c r="F276" s="249">
+      <c r="E276" s="230"/>
+      <c r="F276" s="225">
         <f>D276*Лист2!$B$3</f>
         <v>57992.307999999997</v>
       </c>
-      <c r="G276" s="250"/>
-      <c r="H276" s="251"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G276" s="226"/>
+      <c r="H276" s="227"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="30"/>
       <c r="B277" s="79" t="s">
         <v>131</v>
@@ -10646,18 +10645,18 @@
       <c r="C277" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D277" s="238">
+      <c r="D277" s="230">
         <v>225.5</v>
       </c>
-      <c r="E277" s="238"/>
-      <c r="F277" s="249">
+      <c r="E277" s="230"/>
+      <c r="F277" s="225">
         <f>D277*Лист2!$B$3</f>
         <v>17638.61</v>
       </c>
-      <c r="G277" s="250"/>
-      <c r="H277" s="251"/>
-    </row>
-    <row r="278" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G277" s="226"/>
+      <c r="H277" s="227"/>
+    </row>
+    <row r="278" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A278" s="30"/>
       <c r="B278" s="79" t="s">
         <v>132</v>
@@ -10665,18 +10664,18 @@
       <c r="C278" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D278" s="238">
+      <c r="D278" s="230">
         <v>20.2</v>
       </c>
-      <c r="E278" s="238"/>
-      <c r="F278" s="249">
+      <c r="E278" s="230"/>
+      <c r="F278" s="225">
         <f>D278*Лист2!$B$3</f>
         <v>1580.0439999999999</v>
       </c>
-      <c r="G278" s="250"/>
-      <c r="H278" s="251"/>
-    </row>
-    <row r="279" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G278" s="226"/>
+      <c r="H278" s="227"/>
+    </row>
+    <row r="279" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A279" s="30"/>
       <c r="B279" s="79" t="s">
         <v>133</v>
@@ -10684,18 +10683,18 @@
       <c r="C279" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D279" s="238">
+      <c r="D279" s="230">
         <v>18.2</v>
       </c>
-      <c r="E279" s="238"/>
-      <c r="F279" s="249">
+      <c r="E279" s="230"/>
+      <c r="F279" s="225">
         <f>D279*Лист2!$B$3</f>
         <v>1423.6039999999998</v>
       </c>
-      <c r="G279" s="250"/>
-      <c r="H279" s="251"/>
-    </row>
-    <row r="280" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="G279" s="226"/>
+      <c r="H279" s="227"/>
+    </row>
+    <row r="280" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A280" s="30"/>
       <c r="B280" s="79" t="s">
         <v>134</v>
@@ -10703,28 +10702,28 @@
       <c r="C280" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D280" s="255">
+      <c r="D280" s="219">
         <v>741.4</v>
       </c>
-      <c r="E280" s="255"/>
-      <c r="F280" s="249">
+      <c r="E280" s="219"/>
+      <c r="F280" s="225">
         <f>D280*Лист2!$B$3</f>
         <v>57992.307999999997</v>
       </c>
-      <c r="G280" s="250"/>
-      <c r="H280" s="251"/>
-    </row>
-    <row r="281" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="G280" s="226"/>
+      <c r="H280" s="227"/>
+    </row>
+    <row r="281" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="30"/>
-      <c r="B281" s="245"/>
-      <c r="C281" s="245"/>
-      <c r="D281" s="245"/>
-      <c r="E281" s="245"/>
-      <c r="F281" s="245"/>
-      <c r="G281" s="245"/>
+      <c r="B281" s="234"/>
+      <c r="C281" s="234"/>
+      <c r="D281" s="234"/>
+      <c r="E281" s="234"/>
+      <c r="F281" s="234"/>
+      <c r="G281" s="234"/>
       <c r="H281" s="117"/>
     </row>
-    <row r="282" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A282" s="30"/>
       <c r="B282" s="105"/>
       <c r="C282" s="105"/>
@@ -10734,10 +10733,10 @@
       <c r="G282" s="105"/>
       <c r="H282" s="117"/>
     </row>
-    <row r="283" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A283" s="30"/>
       <c r="B283" s="138" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C283" s="139"/>
       <c r="D283" s="139"/>
@@ -10746,13 +10745,13 @@
       <c r="G283" s="139"/>
       <c r="H283" s="139"/>
     </row>
-    <row r="284" spans="1:8" ht="88.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="88.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="30"/>
       <c r="B284" s="126" t="s">
         <v>1</v>
       </c>
       <c r="C284" s="101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D284" s="23" t="s">
         <v>380</v>
@@ -10764,12 +10763,12 @@
       <c r="F284" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G284" s="230" t="s">
+      <c r="G284" s="228" t="s">
         <v>388</v>
       </c>
-      <c r="H284" s="230"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H284" s="228"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="30"/>
       <c r="B285" s="22">
         <v>1</v>
@@ -10786,12 +10785,12 @@
       <c r="F285" s="110">
         <v>5</v>
       </c>
-      <c r="G285" s="261">
+      <c r="G285" s="229">
         <v>6</v>
       </c>
-      <c r="H285" s="261"/>
-    </row>
-    <row r="286" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="H285" s="229"/>
+    </row>
+    <row r="286" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A286" s="91"/>
       <c r="B286" s="10" t="s">
         <v>210</v>
@@ -10809,13 +10808,13 @@
       <c r="F286" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G286" s="202">
+      <c r="G286" s="203">
         <f t="shared" ref="G286:G335" si="14">E286*F286</f>
         <v>49302.065999999999</v>
       </c>
-      <c r="H286" s="202"/>
-    </row>
-    <row r="287" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H286" s="203"/>
+    </row>
+    <row r="287" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="91"/>
       <c r="B287" s="11" t="s">
         <v>156</v>
@@ -10833,13 +10832,13 @@
       <c r="F287" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G287" s="202">
+      <c r="G287" s="203">
         <f t="shared" si="14"/>
         <v>305.44909999999999</v>
       </c>
-      <c r="H287" s="202"/>
-    </row>
-    <row r="288" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="H287" s="203"/>
+    </row>
+    <row r="288" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="91"/>
       <c r="B288" s="11" t="s">
         <v>158</v>
@@ -10857,13 +10856,13 @@
       <c r="F288" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G288" s="202">
+      <c r="G288" s="203">
         <f t="shared" si="14"/>
         <v>206.5008</v>
       </c>
-      <c r="H288" s="202"/>
-    </row>
-    <row r="289" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H288" s="203"/>
+    </row>
+    <row r="289" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A289" s="91"/>
       <c r="B289" s="11" t="s">
         <v>160</v>
@@ -10881,13 +10880,13 @@
       <c r="F289" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G289" s="202">
+      <c r="G289" s="203">
         <f t="shared" si="14"/>
         <v>305.44909999999999</v>
       </c>
-      <c r="H289" s="202"/>
-    </row>
-    <row r="290" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H289" s="203"/>
+    </row>
+    <row r="290" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A290" s="127"/>
       <c r="B290" s="11" t="s">
         <v>161</v>
@@ -10905,13 +10904,13 @@
       <c r="F290" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G290" s="202">
+      <c r="G290" s="203">
         <f t="shared" si="14"/>
         <v>206.5008</v>
       </c>
-      <c r="H290" s="202"/>
-    </row>
-    <row r="291" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H290" s="203"/>
+    </row>
+    <row r="291" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="128"/>
       <c r="B291" s="11" t="s">
         <v>162</v>
@@ -10929,13 +10928,13 @@
       <c r="F291" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G291" s="202">
+      <c r="G291" s="203">
         <f t="shared" si="14"/>
         <v>245.21970000000002</v>
       </c>
-      <c r="H291" s="202"/>
-    </row>
-    <row r="292" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H291" s="203"/>
+    </row>
+    <row r="292" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="92"/>
       <c r="B292" s="11" t="s">
         <v>164</v>
@@ -10953,13 +10952,13 @@
       <c r="F292" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G292" s="202">
+      <c r="G292" s="203">
         <f t="shared" si="14"/>
         <v>124.76090000000001</v>
       </c>
-      <c r="H292" s="202"/>
-    </row>
-    <row r="293" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H292" s="203"/>
+    </row>
+    <row r="293" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="92"/>
       <c r="B293" s="11" t="s">
         <v>166</v>
@@ -10977,13 +10976,13 @@
       <c r="F293" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G293" s="202">
+      <c r="G293" s="203">
         <f t="shared" si="14"/>
         <v>1652.0064</v>
       </c>
-      <c r="H293" s="202"/>
-    </row>
-    <row r="294" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H293" s="203"/>
+    </row>
+    <row r="294" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="92"/>
       <c r="B294" s="11" t="s">
         <v>168</v>
@@ -11001,13 +11000,13 @@
       <c r="F294" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G294" s="202">
+      <c r="G294" s="203">
         <f t="shared" si="14"/>
         <v>2026.2891000000004</v>
       </c>
-      <c r="H294" s="202"/>
-    </row>
-    <row r="295" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H294" s="203"/>
+    </row>
+    <row r="295" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="92"/>
       <c r="B295" s="11" t="s">
         <v>170</v>
@@ -11025,13 +11024,13 @@
       <c r="F295" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G295" s="202">
+      <c r="G295" s="203">
         <f t="shared" si="14"/>
         <v>3983.7446</v>
       </c>
-      <c r="H295" s="202"/>
-    </row>
-    <row r="296" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H295" s="203"/>
+    </row>
+    <row r="296" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="92"/>
       <c r="B296" s="11" t="s">
         <v>172</v>
@@ -11049,13 +11048,13 @@
       <c r="F296" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G296" s="202">
+      <c r="G296" s="203">
         <f t="shared" si="14"/>
         <v>3983.7446</v>
       </c>
-      <c r="H296" s="202"/>
-    </row>
-    <row r="297" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H296" s="203"/>
+    </row>
+    <row r="297" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="92"/>
       <c r="B297" s="12" t="s">
         <v>383</v>
@@ -11073,13 +11072,13 @@
       <c r="F297" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G297" s="202">
+      <c r="G297" s="203">
         <f t="shared" si="14"/>
         <v>2026.2891000000004</v>
       </c>
-      <c r="H297" s="202"/>
-    </row>
-    <row r="298" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H297" s="203"/>
+    </row>
+    <row r="298" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A298" s="92"/>
       <c r="B298" s="12" t="s">
         <v>385</v>
@@ -11097,13 +11096,13 @@
       <c r="F298" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G298" s="202">
+      <c r="G298" s="203">
         <f t="shared" si="14"/>
         <v>1105.6396999999999</v>
       </c>
-      <c r="H298" s="202"/>
-    </row>
-    <row r="299" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H298" s="203"/>
+    </row>
+    <row r="299" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A299" s="92"/>
       <c r="B299" s="11" t="s">
         <v>183</v>
@@ -11121,13 +11120,13 @@
       <c r="F299" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G299" s="202">
+      <c r="G299" s="203">
         <f t="shared" si="14"/>
         <v>8019.1144000000013</v>
       </c>
-      <c r="H299" s="202"/>
-    </row>
-    <row r="300" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H299" s="203"/>
+    </row>
+    <row r="300" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A300" s="92"/>
       <c r="B300" s="11" t="s">
         <v>314</v>
@@ -11145,13 +11144,13 @@
       <c r="F300" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G300" s="202">
+      <c r="G300" s="203">
         <f t="shared" si="14"/>
         <v>10587.4681</v>
       </c>
-      <c r="H300" s="202"/>
-    </row>
-    <row r="301" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H300" s="203"/>
+    </row>
+    <row r="301" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A301" s="92"/>
       <c r="B301" s="11" t="s">
         <v>315</v>
@@ -11169,13 +11168,13 @@
       <c r="F301" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G301" s="202">
+      <c r="G301" s="203">
         <f t="shared" si="14"/>
         <v>7094.1629000000012</v>
       </c>
-      <c r="H301" s="202"/>
-    </row>
-    <row r="302" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H301" s="203"/>
+    </row>
+    <row r="302" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A302" s="92"/>
       <c r="B302" s="11" t="s">
         <v>316</v>
@@ -11193,13 +11192,13 @@
       <c r="F302" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G302" s="202">
+      <c r="G302" s="203">
         <f t="shared" si="14"/>
         <v>9714.1418000000012</v>
       </c>
-      <c r="H302" s="202"/>
-    </row>
-    <row r="303" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H302" s="203"/>
+    </row>
+    <row r="303" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A303" s="92"/>
       <c r="B303" s="11" t="s">
         <v>317</v>
@@ -11217,13 +11216,13 @@
       <c r="F303" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G303" s="202">
+      <c r="G303" s="203">
         <f t="shared" si="14"/>
         <v>8019.1144000000013</v>
       </c>
-      <c r="H303" s="202"/>
-    </row>
-    <row r="304" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H303" s="203"/>
+    </row>
+    <row r="304" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A304" s="92"/>
       <c r="B304" s="11" t="s">
         <v>318</v>
@@ -11241,13 +11240,13 @@
       <c r="F304" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G304" s="202">
+      <c r="G304" s="203">
         <f t="shared" si="14"/>
         <v>10587.4681</v>
       </c>
-      <c r="H304" s="202"/>
-    </row>
-    <row r="305" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H304" s="203"/>
+    </row>
+    <row r="305" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A305" s="92"/>
       <c r="B305" s="11" t="s">
         <v>319</v>
@@ -11265,13 +11264,13 @@
       <c r="F305" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G305" s="202">
+      <c r="G305" s="203">
         <f t="shared" si="14"/>
         <v>7094.1629000000012</v>
       </c>
-      <c r="H305" s="202"/>
-    </row>
-    <row r="306" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H305" s="203"/>
+    </row>
+    <row r="306" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A306" s="92"/>
       <c r="B306" s="11" t="s">
         <v>320</v>
@@ -11289,13 +11288,13 @@
       <c r="F306" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G306" s="202">
+      <c r="G306" s="203">
         <f t="shared" si="14"/>
         <v>9714.1418000000012</v>
       </c>
-      <c r="H306" s="202"/>
-    </row>
-    <row r="307" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H306" s="203"/>
+    </row>
+    <row r="307" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A307" s="92"/>
       <c r="B307" s="11" t="s">
         <v>321</v>
@@ -11313,13 +11312,13 @@
       <c r="F307" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G307" s="202">
+      <c r="G307" s="203">
         <f t="shared" si="14"/>
         <v>23437.840799999998</v>
       </c>
-      <c r="H307" s="202"/>
-    </row>
-    <row r="308" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H307" s="203"/>
+    </row>
+    <row r="308" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A308" s="92"/>
       <c r="B308" s="11" t="s">
         <v>322</v>
@@ -11337,13 +11336,13 @@
       <c r="F308" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G308" s="202">
+      <c r="G308" s="203">
         <f t="shared" si="14"/>
         <v>31250.454399999999</v>
       </c>
-      <c r="H308" s="202"/>
-    </row>
-    <row r="309" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H308" s="203"/>
+    </row>
+    <row r="309" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A309" s="92"/>
       <c r="B309" s="11" t="s">
         <v>323</v>
@@ -11361,13 +11360,13 @@
       <c r="F309" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G309" s="202">
+      <c r="G309" s="203">
         <f t="shared" si="14"/>
         <v>21798.740700000002</v>
       </c>
-      <c r="H309" s="202"/>
-    </row>
-    <row r="310" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H309" s="203"/>
+    </row>
+    <row r="310" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A310" s="92"/>
       <c r="B310" s="11" t="s">
         <v>324</v>
@@ -11385,13 +11384,13 @@
       <c r="F310" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G310" s="202">
+      <c r="G310" s="203">
         <f t="shared" si="14"/>
         <v>27813.076499999999</v>
       </c>
-      <c r="H310" s="202"/>
-    </row>
-    <row r="311" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H310" s="203"/>
+    </row>
+    <row r="311" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A311" s="92"/>
       <c r="B311" s="11" t="s">
         <v>325</v>
@@ -11409,13 +11408,13 @@
       <c r="F311" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G311" s="202">
+      <c r="G311" s="203">
         <f t="shared" si="14"/>
         <v>3321.2212</v>
       </c>
-      <c r="H311" s="202"/>
-    </row>
-    <row r="312" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H311" s="203"/>
+    </row>
+    <row r="312" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A312" s="92"/>
       <c r="B312" s="11" t="s">
         <v>326</v>
@@ -11433,13 +11432,13 @@
       <c r="F312" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G312" s="202">
+      <c r="G312" s="203">
         <f t="shared" si="14"/>
         <v>3321.2212</v>
       </c>
-      <c r="H312" s="202"/>
-    </row>
-    <row r="313" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H312" s="203"/>
+    </row>
+    <row r="313" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A313" s="92"/>
       <c r="B313" s="11" t="s">
         <v>327</v>
@@ -11457,13 +11456,13 @@
       <c r="F313" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G313" s="202">
+      <c r="G313" s="203">
         <f t="shared" si="14"/>
         <v>6573.6088000000009</v>
       </c>
-      <c r="H313" s="202"/>
-    </row>
-    <row r="314" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="H313" s="203"/>
+    </row>
+    <row r="314" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A314" s="92"/>
       <c r="B314" s="11" t="s">
         <v>328</v>
@@ -11481,13 +11480,13 @@
       <c r="F314" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G314" s="202">
+      <c r="G314" s="203">
         <f t="shared" si="14"/>
         <v>5975.6169</v>
       </c>
-      <c r="H314" s="202"/>
-    </row>
-    <row r="315" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H314" s="203"/>
+    </row>
+    <row r="315" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A315" s="92"/>
       <c r="B315" s="11" t="s">
         <v>329</v>
@@ -11505,13 +11504,13 @@
       <c r="F315" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G315" s="202">
+      <c r="G315" s="203">
         <f t="shared" si="14"/>
         <v>11340.335600000002</v>
       </c>
-      <c r="H315" s="202"/>
-    </row>
-    <row r="316" spans="1:8" s="30" customFormat="1" ht="38.5" x14ac:dyDescent="0.25">
+      <c r="H315" s="203"/>
+    </row>
+    <row r="316" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A316" s="92"/>
       <c r="B316" s="11" t="s">
         <v>330</v>
@@ -11529,13 +11528,13 @@
       <c r="F316" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G316" s="202">
+      <c r="G316" s="203">
         <f t="shared" si="14"/>
         <v>31250.454399999999</v>
       </c>
-      <c r="H316" s="202"/>
-    </row>
-    <row r="317" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H316" s="203"/>
+    </row>
+    <row r="317" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A317" s="92"/>
       <c r="B317" s="11" t="s">
         <v>331</v>
@@ -11553,13 +11552,13 @@
       <c r="F317" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G317" s="202">
+      <c r="G317" s="203">
         <f t="shared" si="14"/>
         <v>10230.393800000002</v>
       </c>
-      <c r="H317" s="202"/>
-    </row>
-    <row r="318" spans="1:8" s="30" customFormat="1" ht="38.5" x14ac:dyDescent="0.25">
+      <c r="H317" s="203"/>
+    </row>
+    <row r="318" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A318" s="92"/>
       <c r="B318" s="11" t="s">
         <v>332</v>
@@ -11577,13 +11576,13 @@
       <c r="F318" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G318" s="202">
+      <c r="G318" s="203">
         <f t="shared" si="14"/>
         <v>27813.076499999999</v>
       </c>
-      <c r="H318" s="202"/>
-    </row>
-    <row r="319" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H318" s="203"/>
+    </row>
+    <row r="319" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A319" s="92"/>
       <c r="B319" s="11" t="s">
         <v>333</v>
@@ -11601,13 +11600,13 @@
       <c r="F319" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G319" s="202">
+      <c r="G319" s="203">
         <f t="shared" si="14"/>
         <v>23437.840799999998</v>
       </c>
-      <c r="H319" s="202"/>
-    </row>
-    <row r="320" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H319" s="203"/>
+    </row>
+    <row r="320" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A320" s="92"/>
       <c r="B320" s="11" t="s">
         <v>334</v>
@@ -11625,13 +11624,13 @@
       <c r="F320" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G320" s="202">
+      <c r="G320" s="203">
         <f t="shared" si="14"/>
         <v>21798.740700000002</v>
       </c>
-      <c r="H320" s="202"/>
-    </row>
-    <row r="321" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H320" s="203"/>
+    </row>
+    <row r="321" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A321" s="92"/>
       <c r="B321" s="11" t="s">
         <v>335</v>
@@ -11649,13 +11648,13 @@
       <c r="F321" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G321" s="202">
+      <c r="G321" s="203">
         <f t="shared" si="14"/>
         <v>11340.335600000002</v>
       </c>
-      <c r="H321" s="202"/>
-    </row>
-    <row r="322" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H321" s="203"/>
+    </row>
+    <row r="322" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A322" s="92"/>
       <c r="B322" s="11" t="s">
         <v>336</v>
@@ -11673,13 +11672,13 @@
       <c r="F322" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G322" s="202">
+      <c r="G322" s="203">
         <f t="shared" si="14"/>
         <v>31250.454399999999</v>
       </c>
-      <c r="H322" s="202"/>
-    </row>
-    <row r="323" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H322" s="203"/>
+    </row>
+    <row r="323" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A323" s="92"/>
       <c r="B323" s="11" t="s">
         <v>337</v>
@@ -11697,13 +11696,13 @@
       <c r="F323" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G323" s="202">
+      <c r="G323" s="203">
         <f t="shared" si="14"/>
         <v>10230.393800000002</v>
       </c>
-      <c r="H323" s="202"/>
-    </row>
-    <row r="324" spans="1:8" s="30" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+      <c r="H323" s="203"/>
+    </row>
+    <row r="324" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A324" s="92"/>
       <c r="B324" s="11" t="s">
         <v>338</v>
@@ -11721,13 +11720,13 @@
       <c r="F324" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G324" s="202">
+      <c r="G324" s="203">
         <f t="shared" si="14"/>
         <v>27813.076499999999</v>
       </c>
-      <c r="H324" s="202"/>
-    </row>
-    <row r="325" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H324" s="203"/>
+    </row>
+    <row r="325" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="92"/>
       <c r="B325" s="11" t="s">
         <v>344</v>
@@ -11745,13 +11744,13 @@
       <c r="F325" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G325" s="202">
+      <c r="G325" s="203">
         <f t="shared" si="14"/>
         <v>7967.4892</v>
       </c>
-      <c r="H325" s="202"/>
-    </row>
-    <row r="326" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H325" s="203"/>
+    </row>
+    <row r="326" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="92"/>
       <c r="B326" s="13" t="s">
         <v>281</v>
@@ -11769,13 +11768,13 @@
       <c r="F326" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G326" s="202">
+      <c r="G326" s="203">
         <f t="shared" si="14"/>
         <v>3983.7446</v>
       </c>
-      <c r="H326" s="202"/>
-    </row>
-    <row r="327" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H326" s="203"/>
+    </row>
+    <row r="327" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="92"/>
       <c r="B327" s="11" t="s">
         <v>173</v>
@@ -11793,13 +11792,13 @@
       <c r="F327" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G327" s="202">
+      <c r="G327" s="203">
         <f t="shared" si="14"/>
         <v>11340.335600000002</v>
       </c>
-      <c r="H327" s="202"/>
-    </row>
-    <row r="328" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H327" s="203"/>
+    </row>
+    <row r="328" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="92"/>
       <c r="B328" s="14" t="s">
         <v>207</v>
@@ -11817,13 +11816,13 @@
       <c r="F328" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G328" s="202">
+      <c r="G328" s="203">
         <f t="shared" si="14"/>
         <v>468.92890000000006</v>
       </c>
-      <c r="H328" s="202"/>
-    </row>
-    <row r="329" spans="1:8" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H328" s="203"/>
+    </row>
+    <row r="329" spans="1:8" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A329" s="92"/>
       <c r="B329" s="11" t="s">
         <v>174</v>
@@ -11841,13 +11840,13 @@
       <c r="F329" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G329" s="202">
+      <c r="G329" s="203">
         <f t="shared" si="14"/>
         <v>5429.2502000000004</v>
       </c>
-      <c r="H329" s="202"/>
-    </row>
-    <row r="330" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H329" s="203"/>
+    </row>
+    <row r="330" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A330" s="92"/>
       <c r="B330" s="11" t="s">
         <v>339</v>
@@ -11865,13 +11864,13 @@
       <c r="F330" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G330" s="202">
+      <c r="G330" s="203">
         <f t="shared" si="14"/>
         <v>11340.335600000002</v>
       </c>
-      <c r="H330" s="202"/>
-    </row>
-    <row r="331" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H330" s="203"/>
+    </row>
+    <row r="331" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A331" s="92"/>
       <c r="B331" s="11" t="s">
         <v>340</v>
@@ -11889,13 +11888,13 @@
       <c r="F331" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G331" s="202">
+      <c r="G331" s="203">
         <f t="shared" si="14"/>
         <v>31250.454399999999</v>
       </c>
-      <c r="H331" s="202"/>
-    </row>
-    <row r="332" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H331" s="203"/>
+    </row>
+    <row r="332" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A332" s="92"/>
       <c r="B332" s="11" t="s">
         <v>341</v>
@@ -11913,13 +11912,13 @@
       <c r="F332" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G332" s="202">
+      <c r="G332" s="203">
         <f t="shared" si="14"/>
         <v>10230.393800000002</v>
       </c>
-      <c r="H332" s="202"/>
-    </row>
-    <row r="333" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H332" s="203"/>
+    </row>
+    <row r="333" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A333" s="92"/>
       <c r="B333" s="11" t="s">
         <v>342</v>
@@ -11937,13 +11936,13 @@
       <c r="F333" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G333" s="202">
+      <c r="G333" s="203">
         <f t="shared" si="14"/>
         <v>27813.076499999999</v>
       </c>
-      <c r="H333" s="202"/>
-    </row>
-    <row r="334" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H333" s="203"/>
+    </row>
+    <row r="334" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A334" s="92"/>
       <c r="B334" s="15" t="s">
         <v>205</v>
@@ -11961,13 +11960,13 @@
       <c r="F334" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G334" s="202">
+      <c r="G334" s="203">
         <f t="shared" si="14"/>
         <v>1643.4022000000002</v>
       </c>
-      <c r="H334" s="202"/>
-    </row>
-    <row r="335" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="H334" s="203"/>
+    </row>
+    <row r="335" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A335" s="92"/>
       <c r="B335" s="15" t="s">
         <v>204</v>
@@ -11985,13 +11984,13 @@
       <c r="F335" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G335" s="202">
+      <c r="G335" s="203">
         <f t="shared" si="14"/>
         <v>1368.0678000000003</v>
       </c>
-      <c r="H335" s="202"/>
-    </row>
-    <row r="336" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="H335" s="203"/>
+    </row>
+    <row r="336" spans="1:8" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="92"/>
       <c r="B336" s="18"/>
       <c r="C336" s="93"/>
@@ -12001,7 +12000,7 @@
       <c r="G336" s="103"/>
       <c r="H336" s="103"/>
     </row>
-    <row r="337" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="92"/>
       <c r="B337" s="94"/>
       <c r="C337" s="95"/>
@@ -12011,10 +12010,10 @@
       <c r="G337" s="94"/>
       <c r="H337" s="117"/>
     </row>
-    <row r="338" spans="1:8" ht="23" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A338" s="96"/>
       <c r="B338" s="134" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C338" s="135"/>
       <c r="D338" s="135"/>
@@ -12023,10 +12022,10 @@
       <c r="G338" s="135"/>
       <c r="H338" s="135"/>
     </row>
-    <row r="339" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A339" s="96"/>
       <c r="B339" s="136" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C339" s="137"/>
       <c r="D339" s="137"/>
@@ -12035,43 +12034,43 @@
       <c r="G339" s="137"/>
       <c r="H339" s="137"/>
     </row>
-    <row r="340" spans="1:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="96"/>
       <c r="B340" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C340" s="244" t="s">
+      <c r="C340" s="200" t="s">
         <v>395</v>
       </c>
-      <c r="D340" s="244"/>
-      <c r="E340" s="244" t="s">
+      <c r="D340" s="200"/>
+      <c r="E340" s="200" t="s">
         <v>394</v>
       </c>
-      <c r="F340" s="244"/>
-      <c r="G340" s="244" t="s">
-        <v>422</v>
-      </c>
-      <c r="H340" s="244"/>
-    </row>
-    <row r="341" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="F340" s="200"/>
+      <c r="G340" s="200" t="s">
+        <v>421</v>
+      </c>
+      <c r="H340" s="200"/>
+    </row>
+    <row r="341" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="96"/>
       <c r="B341" s="102">
         <v>1</v>
       </c>
-      <c r="C341" s="259">
+      <c r="C341" s="201">
         <v>2</v>
       </c>
-      <c r="D341" s="259"/>
-      <c r="E341" s="259">
+      <c r="D341" s="201"/>
+      <c r="E341" s="201">
         <v>3</v>
       </c>
-      <c r="F341" s="259"/>
-      <c r="G341" s="259">
+      <c r="F341" s="201"/>
+      <c r="G341" s="201">
         <v>4</v>
       </c>
-      <c r="H341" s="259"/>
-    </row>
-    <row r="342" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H341" s="201"/>
+    </row>
+    <row r="342" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="96"/>
       <c r="B342" s="26" t="s">
         <v>221</v>
@@ -12084,12 +12083,12 @@
         <v>223</v>
       </c>
       <c r="F342" s="218"/>
-      <c r="G342" s="216">
+      <c r="G342" s="223">
         <v>3000</v>
       </c>
-      <c r="H342" s="217"/>
-    </row>
-    <row r="343" spans="1:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H342" s="224"/>
+    </row>
+    <row r="343" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="96"/>
       <c r="B343" s="26" t="s">
         <v>224</v>
@@ -12102,12 +12101,12 @@
         <v>223</v>
       </c>
       <c r="F343" s="218"/>
-      <c r="G343" s="216">
+      <c r="G343" s="223">
         <v>2000</v>
       </c>
-      <c r="H343" s="217"/>
-    </row>
-    <row r="344" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H343" s="224"/>
+    </row>
+    <row r="344" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="96"/>
       <c r="B344" s="26" t="s">
         <v>225</v>
@@ -12120,12 +12119,12 @@
         <v>226</v>
       </c>
       <c r="F344" s="218"/>
-      <c r="G344" s="216">
+      <c r="G344" s="223">
         <v>1000</v>
       </c>
-      <c r="H344" s="217"/>
-    </row>
-    <row r="345" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H344" s="224"/>
+    </row>
+    <row r="345" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="96"/>
       <c r="B345" s="26" t="s">
         <v>227</v>
@@ -12138,12 +12137,12 @@
         <v>228</v>
       </c>
       <c r="F345" s="218"/>
-      <c r="G345" s="216">
+      <c r="G345" s="223">
         <v>350</v>
       </c>
-      <c r="H345" s="217"/>
-    </row>
-    <row r="346" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H345" s="224"/>
+    </row>
+    <row r="346" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="96"/>
       <c r="B346" s="26" t="s">
         <v>229</v>
@@ -12156,12 +12155,12 @@
         <v>230</v>
       </c>
       <c r="F346" s="218"/>
-      <c r="G346" s="216">
+      <c r="G346" s="223">
         <v>300</v>
       </c>
-      <c r="H346" s="217"/>
-    </row>
-    <row r="347" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H346" s="224"/>
+    </row>
+    <row r="347" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="96"/>
       <c r="B347" s="26" t="s">
         <v>231</v>
@@ -12174,12 +12173,12 @@
         <v>232</v>
       </c>
       <c r="F347" s="218"/>
-      <c r="G347" s="216">
+      <c r="G347" s="223">
         <v>350</v>
       </c>
-      <c r="H347" s="217"/>
-    </row>
-    <row r="348" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H347" s="224"/>
+    </row>
+    <row r="348" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="96"/>
       <c r="B348" s="26" t="s">
         <v>233</v>
@@ -12192,12 +12191,12 @@
         <v>234</v>
       </c>
       <c r="F348" s="218"/>
-      <c r="G348" s="216">
+      <c r="G348" s="223">
         <v>350</v>
       </c>
-      <c r="H348" s="217"/>
-    </row>
-    <row r="349" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H348" s="224"/>
+    </row>
+    <row r="349" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="96"/>
       <c r="B349" s="26" t="s">
         <v>235</v>
@@ -12210,12 +12209,12 @@
         <v>236</v>
       </c>
       <c r="F349" s="218"/>
-      <c r="G349" s="216">
+      <c r="G349" s="223">
         <v>1300</v>
       </c>
-      <c r="H349" s="217"/>
-    </row>
-    <row r="350" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H349" s="224"/>
+    </row>
+    <row r="350" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="96"/>
       <c r="B350" s="26" t="s">
         <v>237</v>
@@ -12228,12 +12227,12 @@
         <v>238</v>
       </c>
       <c r="F350" s="218"/>
-      <c r="G350" s="216">
+      <c r="G350" s="223">
         <v>1300</v>
       </c>
-      <c r="H350" s="217"/>
-    </row>
-    <row r="351" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H350" s="224"/>
+    </row>
+    <row r="351" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="96"/>
       <c r="B351" s="26" t="s">
         <v>239</v>
@@ -12246,12 +12245,12 @@
         <v>348</v>
       </c>
       <c r="F351" s="218"/>
-      <c r="G351" s="216">
+      <c r="G351" s="223">
         <v>400</v>
       </c>
-      <c r="H351" s="217"/>
-    </row>
-    <row r="352" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H351" s="224"/>
+    </row>
+    <row r="352" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="96"/>
       <c r="B352" s="26" t="s">
         <v>240</v>
@@ -12264,12 +12263,12 @@
         <v>241</v>
       </c>
       <c r="F352" s="218"/>
-      <c r="G352" s="216">
+      <c r="G352" s="223">
         <v>350</v>
       </c>
-      <c r="H352" s="217"/>
-    </row>
-    <row r="353" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H352" s="224"/>
+    </row>
+    <row r="353" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="96"/>
       <c r="B353" s="26" t="s">
         <v>242</v>
@@ -12282,12 +12281,12 @@
         <v>243</v>
       </c>
       <c r="F353" s="218"/>
-      <c r="G353" s="216">
+      <c r="G353" s="223">
         <v>400</v>
       </c>
-      <c r="H353" s="217"/>
-    </row>
-    <row r="354" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H353" s="224"/>
+    </row>
+    <row r="354" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="96"/>
       <c r="B354" s="26" t="s">
         <v>244</v>
@@ -12300,12 +12299,12 @@
         <v>346</v>
       </c>
       <c r="F354" s="218"/>
-      <c r="G354" s="216">
+      <c r="G354" s="223">
         <v>4000</v>
       </c>
-      <c r="H354" s="217"/>
-    </row>
-    <row r="355" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H354" s="224"/>
+    </row>
+    <row r="355" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="96"/>
       <c r="B355" s="26" t="s">
         <v>245</v>
@@ -12318,12 +12317,12 @@
         <v>246</v>
       </c>
       <c r="F355" s="218"/>
-      <c r="G355" s="216">
+      <c r="G355" s="223">
         <v>500</v>
       </c>
-      <c r="H355" s="217"/>
-    </row>
-    <row r="356" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H355" s="224"/>
+    </row>
+    <row r="356" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="96"/>
       <c r="B356" s="26" t="s">
         <v>75</v>
@@ -12336,12 +12335,12 @@
         <v>280</v>
       </c>
       <c r="F356" s="218"/>
-      <c r="G356" s="216">
+      <c r="G356" s="223">
         <v>500</v>
       </c>
-      <c r="H356" s="217"/>
-    </row>
-    <row r="357" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="H356" s="224"/>
+    </row>
+    <row r="357" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="96"/>
       <c r="B357" s="20"/>
       <c r="C357" s="19"/>
@@ -12351,10 +12350,10 @@
       <c r="G357" s="19"/>
       <c r="H357" s="19"/>
     </row>
-    <row r="358" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A358" s="96"/>
       <c r="B358" s="157" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C358" s="158"/>
       <c r="D358" s="158"/>
@@ -12363,61 +12362,61 @@
       <c r="G358" s="158"/>
       <c r="H358" s="158"/>
     </row>
-    <row r="359" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="96"/>
       <c r="B359" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C359" s="255" t="s">
+      <c r="C359" s="219" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="255"/>
+      <c r="D359" s="219"/>
       <c r="E359" s="218" t="s">
         <v>257</v>
       </c>
       <c r="F359" s="218"/>
-      <c r="G359" s="216">
+      <c r="G359" s="223">
         <v>4500</v>
       </c>
-      <c r="H359" s="217"/>
-    </row>
-    <row r="360" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H359" s="224"/>
+    </row>
+    <row r="360" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="96"/>
       <c r="B360" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C360" s="255" t="s">
+      <c r="C360" s="219" t="s">
         <v>222</v>
       </c>
-      <c r="D360" s="255"/>
+      <c r="D360" s="219"/>
       <c r="E360" s="218" t="s">
         <v>257</v>
       </c>
       <c r="F360" s="218"/>
-      <c r="G360" s="216">
+      <c r="G360" s="223">
         <v>300</v>
       </c>
-      <c r="H360" s="217"/>
-    </row>
-    <row r="361" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H360" s="224"/>
+    </row>
+    <row r="361" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="96"/>
       <c r="B361" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C361" s="255" t="s">
+      <c r="C361" s="219" t="s">
         <v>222</v>
       </c>
-      <c r="D361" s="255"/>
+      <c r="D361" s="219"/>
       <c r="E361" s="218" t="s">
         <v>248</v>
       </c>
       <c r="F361" s="218"/>
-      <c r="G361" s="216">
+      <c r="G361" s="223">
         <v>2500</v>
       </c>
-      <c r="H361" s="217"/>
-    </row>
-    <row r="362" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H361" s="224"/>
+    </row>
+    <row r="362" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="96"/>
       <c r="B362" s="26" t="s">
         <v>249</v>
@@ -12430,12 +12429,12 @@
         <v>250</v>
       </c>
       <c r="F362" s="218"/>
-      <c r="G362" s="216">
+      <c r="G362" s="223">
         <v>700</v>
       </c>
-      <c r="H362" s="217"/>
-    </row>
-    <row r="363" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H362" s="224"/>
+    </row>
+    <row r="363" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="96"/>
       <c r="B363" s="26" t="s">
         <v>251</v>
@@ -12448,12 +12447,12 @@
         <v>252</v>
       </c>
       <c r="F363" s="218"/>
-      <c r="G363" s="216">
+      <c r="G363" s="223">
         <v>500</v>
       </c>
-      <c r="H363" s="217"/>
-    </row>
-    <row r="364" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H363" s="224"/>
+    </row>
+    <row r="364" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="96"/>
       <c r="B364" s="26" t="s">
         <v>253</v>
@@ -12466,12 +12465,12 @@
         <v>254</v>
       </c>
       <c r="F364" s="218"/>
-      <c r="G364" s="216">
+      <c r="G364" s="223">
         <v>2000</v>
       </c>
-      <c r="H364" s="217"/>
-    </row>
-    <row r="365" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H364" s="224"/>
+    </row>
+    <row r="365" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="96"/>
       <c r="B365" s="26" t="s">
         <v>245</v>
@@ -12484,12 +12483,12 @@
         <v>255</v>
       </c>
       <c r="F365" s="218"/>
-      <c r="G365" s="216">
+      <c r="G365" s="223">
         <v>500</v>
       </c>
-      <c r="H365" s="217"/>
-    </row>
-    <row r="366" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H365" s="224"/>
+    </row>
+    <row r="366" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="96"/>
       <c r="B366" s="26" t="s">
         <v>256</v>
@@ -12502,12 +12501,12 @@
         <v>257</v>
       </c>
       <c r="F366" s="218"/>
-      <c r="G366" s="216">
+      <c r="G366" s="223">
         <v>6000</v>
       </c>
-      <c r="H366" s="217"/>
-    </row>
-    <row r="367" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H366" s="224"/>
+    </row>
+    <row r="367" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="96"/>
       <c r="B367" s="26" t="s">
         <v>258</v>
@@ -12520,12 +12519,12 @@
         <v>257</v>
       </c>
       <c r="F367" s="218"/>
-      <c r="G367" s="216">
+      <c r="G367" s="223">
         <v>4000</v>
       </c>
-      <c r="H367" s="217"/>
-    </row>
-    <row r="368" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H367" s="224"/>
+    </row>
+    <row r="368" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="96"/>
       <c r="B368" s="26" t="s">
         <v>259</v>
@@ -12538,12 +12537,12 @@
         <v>255</v>
       </c>
       <c r="F368" s="218"/>
-      <c r="G368" s="216">
+      <c r="G368" s="223">
         <v>500</v>
       </c>
-      <c r="H368" s="217"/>
-    </row>
-    <row r="369" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H368" s="224"/>
+    </row>
+    <row r="369" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="96"/>
       <c r="B369" s="26" t="s">
         <v>260</v>
@@ -12556,12 +12555,12 @@
         <v>255</v>
       </c>
       <c r="F369" s="218"/>
-      <c r="G369" s="216">
+      <c r="G369" s="223">
         <v>500</v>
       </c>
-      <c r="H369" s="217"/>
-    </row>
-    <row r="370" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H369" s="224"/>
+    </row>
+    <row r="370" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="96"/>
       <c r="B370" s="26" t="s">
         <v>227</v>
@@ -12574,12 +12573,12 @@
         <v>261</v>
       </c>
       <c r="F370" s="218"/>
-      <c r="G370" s="216">
+      <c r="G370" s="223">
         <v>500</v>
       </c>
-      <c r="H370" s="217"/>
-    </row>
-    <row r="371" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H370" s="224"/>
+    </row>
+    <row r="371" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="96"/>
       <c r="B371" s="26" t="s">
         <v>262</v>
@@ -12592,12 +12591,12 @@
         <v>255</v>
       </c>
       <c r="F371" s="218"/>
-      <c r="G371" s="216">
+      <c r="G371" s="223">
         <v>400</v>
       </c>
-      <c r="H371" s="217"/>
-    </row>
-    <row r="372" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H371" s="224"/>
+    </row>
+    <row r="372" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="96"/>
       <c r="B372" s="26" t="s">
         <v>233</v>
@@ -12610,12 +12609,12 @@
         <v>263</v>
       </c>
       <c r="F372" s="218"/>
-      <c r="G372" s="214">
+      <c r="G372" s="221">
         <v>500</v>
       </c>
-      <c r="H372" s="215"/>
-    </row>
-    <row r="373" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H372" s="222"/>
+    </row>
+    <row r="373" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="96"/>
       <c r="B373" s="26" t="s">
         <v>264</v>
@@ -12628,12 +12627,12 @@
         <v>265</v>
       </c>
       <c r="F373" s="218"/>
-      <c r="G373" s="214">
+      <c r="G373" s="221">
         <v>500</v>
       </c>
-      <c r="H373" s="215"/>
-    </row>
-    <row r="374" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H373" s="222"/>
+    </row>
+    <row r="374" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="96"/>
       <c r="B374" s="26" t="s">
         <v>239</v>
@@ -12646,12 +12645,12 @@
         <v>257</v>
       </c>
       <c r="F374" s="218"/>
-      <c r="G374" s="214">
+      <c r="G374" s="221">
         <v>500</v>
       </c>
-      <c r="H374" s="215"/>
-    </row>
-    <row r="375" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H374" s="222"/>
+    </row>
+    <row r="375" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="96"/>
       <c r="B375" s="26" t="s">
         <v>266</v>
@@ -12664,12 +12663,12 @@
         <v>263</v>
       </c>
       <c r="F375" s="218"/>
-      <c r="G375" s="214">
+      <c r="G375" s="221">
         <v>500</v>
       </c>
-      <c r="H375" s="215"/>
-    </row>
-    <row r="376" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H375" s="222"/>
+    </row>
+    <row r="376" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="96"/>
       <c r="B376" s="26" t="s">
         <v>267</v>
@@ -12682,12 +12681,12 @@
         <v>268</v>
       </c>
       <c r="F376" s="218"/>
-      <c r="G376" s="216">
+      <c r="G376" s="223">
         <v>3000</v>
       </c>
-      <c r="H376" s="217"/>
-    </row>
-    <row r="377" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H376" s="224"/>
+    </row>
+    <row r="377" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="96"/>
       <c r="B377" s="26" t="s">
         <v>269</v>
@@ -12700,12 +12699,12 @@
         <v>263</v>
       </c>
       <c r="F377" s="218"/>
-      <c r="G377" s="214">
+      <c r="G377" s="221">
         <v>300</v>
       </c>
-      <c r="H377" s="215"/>
-    </row>
-    <row r="378" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H377" s="222"/>
+    </row>
+    <row r="378" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="96"/>
       <c r="B378" s="26" t="s">
         <v>270</v>
@@ -12718,12 +12717,12 @@
         <v>263</v>
       </c>
       <c r="F378" s="218"/>
-      <c r="G378" s="214">
+      <c r="G378" s="221">
         <v>700</v>
       </c>
-      <c r="H378" s="215"/>
-    </row>
-    <row r="379" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H378" s="222"/>
+    </row>
+    <row r="379" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="96"/>
       <c r="B379" s="26" t="s">
         <v>271</v>
@@ -12736,12 +12735,12 @@
         <v>347</v>
       </c>
       <c r="F379" s="218"/>
-      <c r="G379" s="216">
+      <c r="G379" s="223">
         <v>7000</v>
       </c>
-      <c r="H379" s="217"/>
-    </row>
-    <row r="380" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="H379" s="224"/>
+    </row>
+    <row r="380" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A380" s="96"/>
       <c r="B380" s="20"/>
       <c r="C380" s="19"/>
@@ -12751,10 +12750,10 @@
       <c r="G380" s="19"/>
       <c r="H380" s="19"/>
     </row>
-    <row r="381" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A381" s="96"/>
       <c r="B381" s="161" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C381" s="162"/>
       <c r="D381" s="162"/>
@@ -12763,7 +12762,7 @@
       <c r="G381" s="162"/>
       <c r="H381" s="162"/>
     </row>
-    <row r="382" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="96"/>
       <c r="B382" s="26" t="s">
         <v>289</v>
@@ -12776,12 +12775,12 @@
         <v>292</v>
       </c>
       <c r="F382" s="218"/>
-      <c r="G382" s="216">
+      <c r="G382" s="223">
         <v>2500</v>
       </c>
-      <c r="H382" s="217"/>
-    </row>
-    <row r="383" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H382" s="224"/>
+    </row>
+    <row r="383" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="96"/>
       <c r="B383" s="26" t="s">
         <v>245</v>
@@ -12794,12 +12793,12 @@
         <v>292</v>
       </c>
       <c r="F383" s="218"/>
-      <c r="G383" s="216">
+      <c r="G383" s="223">
         <v>500</v>
       </c>
-      <c r="H383" s="217"/>
-    </row>
-    <row r="384" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H383" s="224"/>
+    </row>
+    <row r="384" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="96"/>
       <c r="B384" s="26" t="s">
         <v>290</v>
@@ -12812,12 +12811,12 @@
         <v>292</v>
       </c>
       <c r="F384" s="218"/>
-      <c r="G384" s="216">
+      <c r="G384" s="223">
         <v>3500</v>
       </c>
-      <c r="H384" s="217"/>
-    </row>
-    <row r="385" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="H384" s="224"/>
+    </row>
+    <row r="385" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="96"/>
       <c r="B385" s="20"/>
       <c r="C385" s="19"/>
@@ -12827,64 +12826,64 @@
       <c r="G385" s="19"/>
       <c r="H385" s="19"/>
     </row>
-    <row r="386" spans="1:8" ht="25" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A386" s="96"/>
-      <c r="B386" s="262"/>
-      <c r="C386" s="262"/>
-      <c r="D386" s="262"/>
-      <c r="E386" s="262"/>
-      <c r="F386" s="262"/>
-      <c r="G386" s="262"/>
-      <c r="H386" s="262"/>
-    </row>
-    <row r="387" spans="1:8" ht="16" x14ac:dyDescent="0.4">
+      <c r="B386" s="220"/>
+      <c r="C386" s="220"/>
+      <c r="D386" s="220"/>
+      <c r="E386" s="220"/>
+      <c r="F386" s="220"/>
+      <c r="G386" s="220"/>
+      <c r="H386" s="220"/>
+    </row>
+    <row r="387" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="96"/>
-      <c r="B387" s="266" t="s">
-        <v>427</v>
-      </c>
-      <c r="C387" s="267"/>
-      <c r="D387" s="267"/>
-      <c r="E387" s="267"/>
-      <c r="F387" s="267"/>
-      <c r="G387" s="267"/>
-      <c r="H387" s="267"/>
-    </row>
-    <row r="388" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B387" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="C387" s="217"/>
+      <c r="D387" s="217"/>
+      <c r="E387" s="217"/>
+      <c r="F387" s="217"/>
+      <c r="G387" s="217"/>
+      <c r="H387" s="217"/>
+    </row>
+    <row r="388" spans="1:8" ht="31.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="96"/>
-      <c r="B388" s="266" t="s">
+      <c r="B388" s="216" t="s">
+        <v>433</v>
+      </c>
+      <c r="C388" s="217"/>
+      <c r="D388" s="217"/>
+      <c r="E388" s="217"/>
+      <c r="F388" s="217"/>
+      <c r="G388" s="217"/>
+      <c r="H388" s="217"/>
+    </row>
+    <row r="389" spans="1:8" s="20" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="215" t="s">
         <v>434</v>
       </c>
-      <c r="C388" s="267"/>
-      <c r="D388" s="267"/>
-      <c r="E388" s="267"/>
-      <c r="F388" s="267"/>
-      <c r="G388" s="267"/>
-      <c r="H388" s="267"/>
-    </row>
-    <row r="389" spans="1:8" s="20" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="219" t="s">
-        <v>435</v>
-      </c>
-      <c r="C389" s="219"/>
-      <c r="D389" s="219"/>
-      <c r="E389" s="219"/>
-      <c r="F389" s="219"/>
-      <c r="G389" s="219"/>
-      <c r="H389" s="219"/>
-    </row>
-    <row r="390" spans="1:8" s="20" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="219"/>
-      <c r="C390" s="219"/>
-      <c r="D390" s="219"/>
-      <c r="E390" s="219"/>
-      <c r="F390" s="219"/>
-      <c r="G390" s="219"/>
-      <c r="H390" s="219"/>
-    </row>
-    <row r="391" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="215"/>
+      <c r="D389" s="215"/>
+      <c r="E389" s="215"/>
+      <c r="F389" s="215"/>
+      <c r="G389" s="215"/>
+      <c r="H389" s="215"/>
+    </row>
+    <row r="390" spans="1:8" s="20" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="215"/>
+      <c r="C390" s="215"/>
+      <c r="D390" s="215"/>
+      <c r="E390" s="215"/>
+      <c r="F390" s="215"/>
+      <c r="G390" s="215"/>
+      <c r="H390" s="215"/>
+    </row>
+    <row r="391" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="96"/>
       <c r="B391" s="131" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C391" s="130"/>
       <c r="D391" s="130"/>
@@ -12893,159 +12892,159 @@
       <c r="G391" s="130"/>
       <c r="H391" s="131"/>
     </row>
-    <row r="392" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="96"/>
-      <c r="B392" s="220" t="s">
+      <c r="B392" s="214" t="s">
+        <v>437</v>
+      </c>
+      <c r="C392" s="214"/>
+      <c r="D392" s="214"/>
+      <c r="E392" s="214"/>
+      <c r="F392" s="214"/>
+      <c r="G392" s="214"/>
+      <c r="H392" s="214"/>
+    </row>
+    <row r="393" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A393" s="96"/>
+      <c r="B393" s="214"/>
+      <c r="C393" s="214"/>
+      <c r="D393" s="214"/>
+      <c r="E393" s="214"/>
+      <c r="F393" s="214"/>
+      <c r="G393" s="214"/>
+      <c r="H393" s="214"/>
+    </row>
+    <row r="394" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="96"/>
+      <c r="B394" s="214" t="s">
+        <v>436</v>
+      </c>
+      <c r="C394" s="214"/>
+      <c r="D394" s="214"/>
+      <c r="E394" s="214"/>
+      <c r="F394" s="214"/>
+      <c r="G394" s="214"/>
+      <c r="H394" s="214"/>
+    </row>
+    <row r="395" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A395" s="96"/>
+      <c r="B395" s="214"/>
+      <c r="C395" s="214"/>
+      <c r="D395" s="214"/>
+      <c r="E395" s="214"/>
+      <c r="F395" s="214"/>
+      <c r="G395" s="214"/>
+      <c r="H395" s="214"/>
+    </row>
+    <row r="396" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="96"/>
+      <c r="B396" s="214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C396" s="214"/>
+      <c r="D396" s="214"/>
+      <c r="E396" s="214"/>
+      <c r="F396" s="214"/>
+      <c r="G396" s="214"/>
+      <c r="H396" s="214"/>
+    </row>
+    <row r="397" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A397" s="96"/>
+      <c r="B397" s="214"/>
+      <c r="C397" s="214"/>
+      <c r="D397" s="214"/>
+      <c r="E397" s="214"/>
+      <c r="F397" s="214"/>
+      <c r="G397" s="214"/>
+      <c r="H397" s="214"/>
+    </row>
+    <row r="398" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="96"/>
+      <c r="B398" s="199" t="s">
+        <v>459</v>
+      </c>
+      <c r="C398" s="199"/>
+      <c r="D398" s="199"/>
+      <c r="E398" s="199"/>
+      <c r="F398" s="199"/>
+      <c r="G398" s="199"/>
+      <c r="H398" s="199"/>
+    </row>
+    <row r="399" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A399" s="96"/>
+      <c r="B399" s="199"/>
+      <c r="C399" s="199"/>
+      <c r="D399" s="199"/>
+      <c r="E399" s="199"/>
+      <c r="F399" s="199"/>
+      <c r="G399" s="199"/>
+      <c r="H399" s="199"/>
+    </row>
+    <row r="400" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="96"/>
+      <c r="B400" s="198" t="s">
+        <v>457</v>
+      </c>
+      <c r="C400" s="198"/>
+      <c r="D400" s="198"/>
+      <c r="E400" s="198"/>
+      <c r="F400" s="198"/>
+      <c r="G400" s="198"/>
+      <c r="H400" s="198"/>
+    </row>
+    <row r="401" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A401" s="96"/>
+      <c r="B401" s="198"/>
+      <c r="C401" s="198"/>
+      <c r="D401" s="198"/>
+      <c r="E401" s="198"/>
+      <c r="F401" s="198"/>
+      <c r="G401" s="198"/>
+      <c r="H401" s="198"/>
+    </row>
+    <row r="402" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A402" s="96"/>
+      <c r="B402" s="198"/>
+      <c r="C402" s="198"/>
+      <c r="D402" s="198"/>
+      <c r="E402" s="198"/>
+      <c r="F402" s="198"/>
+      <c r="G402" s="198"/>
+      <c r="H402" s="198"/>
+    </row>
+    <row r="403" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="96"/>
+      <c r="B403" s="213" t="s">
         <v>438</v>
       </c>
-      <c r="C392" s="220"/>
-      <c r="D392" s="220"/>
-      <c r="E392" s="220"/>
-      <c r="F392" s="220"/>
-      <c r="G392" s="220"/>
-      <c r="H392" s="220"/>
-    </row>
-    <row r="393" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A393" s="96"/>
-      <c r="B393" s="220"/>
-      <c r="C393" s="220"/>
-      <c r="D393" s="220"/>
-      <c r="E393" s="220"/>
-      <c r="F393" s="220"/>
-      <c r="G393" s="220"/>
-      <c r="H393" s="220"/>
-    </row>
-    <row r="394" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="96"/>
-      <c r="B394" s="220" t="s">
-        <v>437</v>
-      </c>
-      <c r="C394" s="220"/>
-      <c r="D394" s="220"/>
-      <c r="E394" s="220"/>
-      <c r="F394" s="220"/>
-      <c r="G394" s="220"/>
-      <c r="H394" s="220"/>
-    </row>
-    <row r="395" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A395" s="96"/>
-      <c r="B395" s="220"/>
-      <c r="C395" s="220"/>
-      <c r="D395" s="220"/>
-      <c r="E395" s="220"/>
-      <c r="F395" s="220"/>
-      <c r="G395" s="220"/>
-      <c r="H395" s="220"/>
-    </row>
-    <row r="396" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="96"/>
-      <c r="B396" s="220" t="s">
-        <v>436</v>
-      </c>
-      <c r="C396" s="220"/>
-      <c r="D396" s="220"/>
-      <c r="E396" s="220"/>
-      <c r="F396" s="220"/>
-      <c r="G396" s="220"/>
-      <c r="H396" s="220"/>
-    </row>
-    <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A397" s="96"/>
-      <c r="B397" s="220"/>
-      <c r="C397" s="220"/>
-      <c r="D397" s="220"/>
-      <c r="E397" s="220"/>
-      <c r="F397" s="220"/>
-      <c r="G397" s="220"/>
-      <c r="H397" s="220"/>
-    </row>
-    <row r="398" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="96"/>
-      <c r="B398" s="263" t="s">
-        <v>460</v>
-      </c>
-      <c r="C398" s="263"/>
-      <c r="D398" s="263"/>
-      <c r="E398" s="263"/>
-      <c r="F398" s="263"/>
-      <c r="G398" s="263"/>
-      <c r="H398" s="263"/>
-    </row>
-    <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A399" s="96"/>
-      <c r="B399" s="263"/>
-      <c r="C399" s="263"/>
-      <c r="D399" s="263"/>
-      <c r="E399" s="263"/>
-      <c r="F399" s="263"/>
-      <c r="G399" s="263"/>
-      <c r="H399" s="263"/>
-    </row>
-    <row r="400" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="96"/>
-      <c r="B400" s="264" t="s">
-        <v>458</v>
-      </c>
-      <c r="C400" s="264"/>
-      <c r="D400" s="264"/>
-      <c r="E400" s="264"/>
-      <c r="F400" s="264"/>
-      <c r="G400" s="264"/>
-      <c r="H400" s="264"/>
-    </row>
-    <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A401" s="96"/>
-      <c r="B401" s="264"/>
-      <c r="C401" s="264"/>
-      <c r="D401" s="264"/>
-      <c r="E401" s="264"/>
-      <c r="F401" s="264"/>
-      <c r="G401" s="264"/>
-      <c r="H401" s="264"/>
-    </row>
-    <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.3">
-      <c r="A402" s="96"/>
-      <c r="B402" s="264"/>
-      <c r="C402" s="264"/>
-      <c r="D402" s="264"/>
-      <c r="E402" s="264"/>
-      <c r="F402" s="264"/>
-      <c r="G402" s="264"/>
-      <c r="H402" s="264"/>
-    </row>
-    <row r="403" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="96"/>
-      <c r="B403" s="265" t="s">
-        <v>439</v>
-      </c>
-      <c r="C403" s="265"/>
-      <c r="D403" s="265"/>
-      <c r="E403" s="265"/>
-      <c r="F403" s="265"/>
-      <c r="G403" s="265"/>
-      <c r="H403" s="265"/>
-    </row>
-    <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+      <c r="C403" s="213"/>
+      <c r="D403" s="213"/>
+      <c r="E403" s="213"/>
+      <c r="F403" s="213"/>
+      <c r="G403" s="213"/>
+      <c r="H403" s="213"/>
+    </row>
+    <row r="404" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="96"/>
-      <c r="B404" s="265"/>
-      <c r="C404" s="265"/>
-      <c r="D404" s="265"/>
-      <c r="E404" s="265"/>
-      <c r="F404" s="265"/>
-      <c r="G404" s="265"/>
-      <c r="H404" s="265"/>
-    </row>
-    <row r="405" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="B404" s="213"/>
+      <c r="C404" s="213"/>
+      <c r="D404" s="213"/>
+      <c r="E404" s="213"/>
+      <c r="F404" s="213"/>
+      <c r="G404" s="213"/>
+      <c r="H404" s="213"/>
+    </row>
+    <row r="405" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A405" s="96"/>
       <c r="B405" s="117" t="s">
         <v>300</v>
       </c>
       <c r="H405" s="117"/>
     </row>
-    <row r="406" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="96"/>
       <c r="B406" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C406" s="117"/>
       <c r="D406" s="117"/>
@@ -13054,10 +13053,10 @@
       <c r="G406" s="117"/>
       <c r="H406" s="117"/>
     </row>
-    <row r="407" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="96"/>
       <c r="B407" s="117" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C407" s="117"/>
       <c r="D407" s="117"/>
@@ -13066,7 +13065,7 @@
       <c r="G407" s="117"/>
       <c r="H407" s="117"/>
     </row>
-    <row r="408" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="96"/>
       <c r="B408" s="117" t="s">
         <v>345</v>
@@ -13078,7 +13077,7 @@
       <c r="G408" s="117"/>
       <c r="H408" s="117"/>
     </row>
-    <row r="409" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="132"/>
       <c r="B409" s="117" t="s">
         <v>301</v>
@@ -13090,23 +13089,23 @@
       <c r="G409" s="117"/>
       <c r="H409" s="117"/>
     </row>
-    <row r="410" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="132"/>
       <c r="B410" s="117"/>
     </row>
-    <row r="411" spans="1:8" ht="25" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A411" s="132"/>
-      <c r="B411" s="226" t="s">
-        <v>428</v>
-      </c>
-      <c r="C411" s="227"/>
-      <c r="D411" s="227"/>
-      <c r="E411" s="227"/>
-      <c r="F411" s="227"/>
-      <c r="G411" s="227"/>
-      <c r="H411" s="228"/>
-    </row>
-    <row r="412" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B411" s="256" t="s">
+        <v>427</v>
+      </c>
+      <c r="C411" s="257"/>
+      <c r="D411" s="257"/>
+      <c r="E411" s="257"/>
+      <c r="F411" s="257"/>
+      <c r="G411" s="257"/>
+      <c r="H411" s="258"/>
+    </row>
+    <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B412" s="163"/>
       <c r="C412" s="163"/>
       <c r="D412" s="163"/>
@@ -13115,43 +13114,43 @@
       <c r="G412" s="163"/>
       <c r="H412" s="164"/>
     </row>
-    <row r="413" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="97"/>
-      <c r="B413" s="222" t="s">
-        <v>462</v>
-      </c>
-      <c r="C413" s="222"/>
-      <c r="D413" s="222"/>
-      <c r="E413" s="222"/>
-      <c r="F413" s="222"/>
-      <c r="G413" s="222"/>
+      <c r="B413" s="260" t="s">
+        <v>461</v>
+      </c>
+      <c r="C413" s="260"/>
+      <c r="D413" s="260"/>
+      <c r="E413" s="260"/>
+      <c r="F413" s="260"/>
+      <c r="G413" s="260"/>
       <c r="H413" s="165"/>
     </row>
-    <row r="414" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="133"/>
-      <c r="B414" s="223" t="s">
+      <c r="B414" s="261" t="s">
+        <v>428</v>
+      </c>
+      <c r="C414" s="261"/>
+      <c r="D414" s="261"/>
+      <c r="E414" s="261"/>
+      <c r="F414" s="261"/>
+      <c r="G414" s="261"/>
+      <c r="H414" s="166"/>
+    </row>
+    <row r="415" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="117"/>
+      <c r="B415" s="254" t="s">
         <v>429</v>
       </c>
-      <c r="C414" s="223"/>
-      <c r="D414" s="223"/>
-      <c r="E414" s="223"/>
-      <c r="F414" s="223"/>
-      <c r="G414" s="223"/>
-      <c r="H414" s="166"/>
-    </row>
-    <row r="415" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="117"/>
-      <c r="B415" s="224" t="s">
-        <v>430</v>
-      </c>
-      <c r="C415" s="225"/>
-      <c r="D415" s="225"/>
-      <c r="E415" s="225"/>
-      <c r="F415" s="225"/>
-      <c r="G415" s="225"/>
+      <c r="C415" s="255"/>
+      <c r="D415" s="255"/>
+      <c r="E415" s="255"/>
+      <c r="F415" s="255"/>
+      <c r="G415" s="255"/>
       <c r="H415" s="167"/>
     </row>
-    <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B416" s="169"/>
       <c r="C416" s="170"/>
       <c r="D416" s="170"/>
@@ -13160,7 +13159,7 @@
       <c r="G416" s="170"/>
       <c r="H416" s="168"/>
     </row>
-    <row r="417" spans="2:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B417" s="172"/>
       <c r="C417" s="172"/>
       <c r="D417" s="172"/>
@@ -13168,7 +13167,7 @@
       <c r="F417" s="172"/>
       <c r="G417" s="172"/>
     </row>
-    <row r="418" spans="2:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B418" s="117"/>
       <c r="C418" s="117"/>
       <c r="D418" s="117"/>
@@ -13178,6 +13177,412 @@
     </row>
   </sheetData>
   <mergeCells count="430">
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G359:H359"/>
+    <mergeCell ref="G360:H360"/>
+    <mergeCell ref="G361:H361"/>
+    <mergeCell ref="G347:H347"/>
+    <mergeCell ref="G363:H363"/>
+    <mergeCell ref="G365:H365"/>
+    <mergeCell ref="G348:H348"/>
+    <mergeCell ref="G349:H349"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G344:H344"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="G353:H353"/>
+    <mergeCell ref="G354:H354"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="G356:H356"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="G1:H6"/>
+    <mergeCell ref="B413:G413"/>
+    <mergeCell ref="B414:G414"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G322:H322"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="G324:H324"/>
+    <mergeCell ref="G325:H325"/>
+    <mergeCell ref="G326:H326"/>
+    <mergeCell ref="G291:H291"/>
+    <mergeCell ref="G292:H292"/>
+    <mergeCell ref="G293:H293"/>
+    <mergeCell ref="G294:H294"/>
+    <mergeCell ref="G295:H295"/>
+    <mergeCell ref="G296:H296"/>
+    <mergeCell ref="G297:H297"/>
+    <mergeCell ref="G298:H298"/>
+    <mergeCell ref="G299:H299"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
+    <mergeCell ref="G372:H372"/>
+    <mergeCell ref="G371:H371"/>
+    <mergeCell ref="B415:G415"/>
+    <mergeCell ref="B411:H411"/>
+    <mergeCell ref="G327:H327"/>
+    <mergeCell ref="G328:H328"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="G330:H330"/>
+    <mergeCell ref="G331:H331"/>
+    <mergeCell ref="G332:H332"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="G334:H334"/>
+    <mergeCell ref="G335:H335"/>
+    <mergeCell ref="G379:H379"/>
+    <mergeCell ref="G382:H382"/>
+    <mergeCell ref="G383:H383"/>
+    <mergeCell ref="G384:H384"/>
+    <mergeCell ref="G366:H366"/>
+    <mergeCell ref="G342:H342"/>
+    <mergeCell ref="G343:H343"/>
+    <mergeCell ref="G367:H367"/>
+    <mergeCell ref="G364:H364"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="G351:H351"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="G362:H362"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="G252:H252"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="B253:H254"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="G307:H307"/>
+    <mergeCell ref="G308:H308"/>
+    <mergeCell ref="G319:H319"/>
+    <mergeCell ref="G320:H320"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="G287:H287"/>
+    <mergeCell ref="G288:H288"/>
+    <mergeCell ref="B281:G281"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="F270:H270"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="B175:H176"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="F224:H224"/>
+    <mergeCell ref="C236:H236"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G318:H318"/>
+    <mergeCell ref="G340:H340"/>
+    <mergeCell ref="G341:H341"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="F264:H264"/>
+    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="F266:H266"/>
+    <mergeCell ref="F267:H267"/>
+    <mergeCell ref="F268:H268"/>
+    <mergeCell ref="F269:H269"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F263:H263"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="F261:H261"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="G313:H313"/>
+    <mergeCell ref="G314:H314"/>
+    <mergeCell ref="G315:H315"/>
+    <mergeCell ref="G316:H316"/>
+    <mergeCell ref="G317:H317"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G289:H289"/>
+    <mergeCell ref="F280:H280"/>
+    <mergeCell ref="F271:H271"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="F273:H273"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="F276:H276"/>
+    <mergeCell ref="F277:H277"/>
+    <mergeCell ref="F278:H278"/>
+    <mergeCell ref="F279:H279"/>
+    <mergeCell ref="B386:H386"/>
+    <mergeCell ref="G378:H378"/>
+    <mergeCell ref="G368:H368"/>
+    <mergeCell ref="G369:H369"/>
+    <mergeCell ref="G370:H370"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="C376:D376"/>
+    <mergeCell ref="C377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E382:F382"/>
+    <mergeCell ref="G375:H375"/>
+    <mergeCell ref="G376:H376"/>
+    <mergeCell ref="G377:H377"/>
+    <mergeCell ref="G373:H373"/>
+    <mergeCell ref="G374:H374"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C384:D384"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E383:F383"/>
+    <mergeCell ref="E384:F384"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C353:D353"/>
+    <mergeCell ref="C354:D354"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B403:H404"/>
+    <mergeCell ref="B392:H393"/>
+    <mergeCell ref="B394:H395"/>
+    <mergeCell ref="B396:H397"/>
+    <mergeCell ref="B389:H390"/>
+    <mergeCell ref="B387:H387"/>
+    <mergeCell ref="B388:H388"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B400:H402"/>
     <mergeCell ref="B398:H399"/>
     <mergeCell ref="G110:H110"/>
@@ -13202,412 +13607,6 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B403:H404"/>
-    <mergeCell ref="B392:H393"/>
-    <mergeCell ref="B394:H395"/>
-    <mergeCell ref="B396:H397"/>
-    <mergeCell ref="B389:H390"/>
-    <mergeCell ref="B387:H387"/>
-    <mergeCell ref="B388:H388"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C384:D384"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="C352:D352"/>
-    <mergeCell ref="C353:D353"/>
-    <mergeCell ref="C354:D354"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E383:F383"/>
-    <mergeCell ref="E384:F384"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="C383:D383"/>
-    <mergeCell ref="B386:H386"/>
-    <mergeCell ref="G378:H378"/>
-    <mergeCell ref="G368:H368"/>
-    <mergeCell ref="G369:H369"/>
-    <mergeCell ref="G370:H370"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="C376:D376"/>
-    <mergeCell ref="C377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E382:F382"/>
-    <mergeCell ref="G375:H375"/>
-    <mergeCell ref="G376:H376"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="G377:H377"/>
-    <mergeCell ref="G373:H373"/>
-    <mergeCell ref="G374:H374"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="F280:H280"/>
-    <mergeCell ref="F271:H271"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="F273:H273"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="F275:H275"/>
-    <mergeCell ref="F276:H276"/>
-    <mergeCell ref="F277:H277"/>
-    <mergeCell ref="F278:H278"/>
-    <mergeCell ref="F279:H279"/>
-    <mergeCell ref="G284:H284"/>
-    <mergeCell ref="G285:H285"/>
-    <mergeCell ref="G286:H286"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="G313:H313"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="G315:H315"/>
-    <mergeCell ref="G316:H316"/>
-    <mergeCell ref="G317:H317"/>
-    <mergeCell ref="G318:H318"/>
-    <mergeCell ref="G340:H340"/>
-    <mergeCell ref="G341:H341"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="F264:H264"/>
-    <mergeCell ref="F265:H265"/>
-    <mergeCell ref="F266:H266"/>
-    <mergeCell ref="F267:H267"/>
-    <mergeCell ref="F268:H268"/>
-    <mergeCell ref="F269:H269"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F263:H263"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="F261:H261"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="B281:G281"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="F270:H270"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="B175:H176"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="F224:H224"/>
-    <mergeCell ref="C236:H236"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G249:H249"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G289:H289"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="B253:H254"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G290:H290"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="G250:H250"/>
-    <mergeCell ref="G251:H251"/>
-    <mergeCell ref="G252:H252"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="G308:H308"/>
-    <mergeCell ref="B415:G415"/>
-    <mergeCell ref="B411:H411"/>
-    <mergeCell ref="G327:H327"/>
-    <mergeCell ref="G328:H328"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="G331:H331"/>
-    <mergeCell ref="G332:H332"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="G334:H334"/>
-    <mergeCell ref="G335:H335"/>
-    <mergeCell ref="G379:H379"/>
-    <mergeCell ref="G382:H382"/>
-    <mergeCell ref="G383:H383"/>
-    <mergeCell ref="G384:H384"/>
-    <mergeCell ref="G366:H366"/>
-    <mergeCell ref="G342:H342"/>
-    <mergeCell ref="G343:H343"/>
-    <mergeCell ref="G367:H367"/>
-    <mergeCell ref="G364:H364"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="G351:H351"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="G1:H6"/>
-    <mergeCell ref="B413:G413"/>
-    <mergeCell ref="B414:G414"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G322:H322"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="G324:H324"/>
-    <mergeCell ref="G325:H325"/>
-    <mergeCell ref="G326:H326"/>
-    <mergeCell ref="G291:H291"/>
-    <mergeCell ref="G292:H292"/>
-    <mergeCell ref="G293:H293"/>
-    <mergeCell ref="G294:H294"/>
-    <mergeCell ref="G295:H295"/>
-    <mergeCell ref="G296:H296"/>
-    <mergeCell ref="G297:H297"/>
-    <mergeCell ref="G298:H298"/>
-    <mergeCell ref="G299:H299"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="G372:H372"/>
-    <mergeCell ref="G371:H371"/>
-    <mergeCell ref="G319:H319"/>
-    <mergeCell ref="G320:H320"/>
-    <mergeCell ref="G362:H362"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="G345:H345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="C346:D346"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="G353:H353"/>
-    <mergeCell ref="G354:H354"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="G356:H356"/>
-    <mergeCell ref="G359:H359"/>
-    <mergeCell ref="G360:H360"/>
-    <mergeCell ref="G361:H361"/>
-    <mergeCell ref="G347:H347"/>
-    <mergeCell ref="G363:H363"/>
-    <mergeCell ref="G365:H365"/>
-    <mergeCell ref="G348:H348"/>
-    <mergeCell ref="G349:H349"/>
-    <mergeCell ref="G350:H350"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="F222:H222"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13619,24 +13618,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>377</v>
       </c>
@@ -13662,12 +13661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="8" customWidth="1"/>
   </cols>
